--- a/0_PrepDataSim/20240926_SelSimData.xlsx
+++ b/0_PrepDataSim/20240926_SelSimData.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S159"/>
+  <dimension ref="A1:T159"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -425,30 +425,35 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
+          <t>W2</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
           <t>totresp_d</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>NRF</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>totresp_ps</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>pop_ps</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>final_weight</t>
         </is>
@@ -500,25 +505,28 @@
         <v>40</v>
       </c>
       <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
         <v>11390</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>30</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>1.333333333333333</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>3</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>26100</v>
       </c>
-      <c r="R2">
-        <v>93.27379053088815</v>
-      </c>
       <c r="S2">
-        <v>1416517.965529088</v>
+        <v>8700</v>
+      </c>
+      <c r="T2">
+        <v>11600</v>
       </c>
     </row>
     <row r="3">
@@ -567,25 +575,28 @@
         <v>40</v>
       </c>
       <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
         <v>11390</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>30</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>1.333333333333333</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>2</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>28100</v>
       </c>
-      <c r="R3">
-        <v>118.532695911297</v>
-      </c>
       <c r="S3">
-        <v>1800116.54190623</v>
+        <v>14050</v>
+      </c>
+      <c r="T3">
+        <v>18733.33333333333</v>
       </c>
     </row>
     <row r="4">
@@ -634,25 +645,28 @@
         <v>40</v>
       </c>
       <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
         <v>11390</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>30</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>1.333333333333333</v>
       </c>
-      <c r="P4">
-        <v>1</v>
-      </c>
       <c r="Q4">
+        <v>1</v>
+      </c>
+      <c r="R4">
         <v>12900</v>
       </c>
-      <c r="R4">
-        <v>113.5781669160055</v>
-      </c>
       <c r="S4">
-        <v>1724873.761564403</v>
+        <v>12900</v>
+      </c>
+      <c r="T4">
+        <v>17200</v>
       </c>
     </row>
     <row r="5">
@@ -701,25 +715,28 @@
         <v>40</v>
       </c>
       <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
         <v>11390</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>30</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>1.333333333333333</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>5</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>55200</v>
       </c>
-      <c r="R5">
-        <v>105.0714042925096</v>
-      </c>
       <c r="S5">
-        <v>1595684.393188912</v>
+        <v>11040</v>
+      </c>
+      <c r="T5">
+        <v>14720</v>
       </c>
     </row>
     <row r="6">
@@ -768,25 +785,28 @@
         <v>40</v>
       </c>
       <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
         <v>11390</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>30</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>1.333333333333333</v>
       </c>
-      <c r="P6">
-        <v>1</v>
-      </c>
       <c r="Q6">
+        <v>1</v>
+      </c>
+      <c r="R6">
         <v>16600</v>
       </c>
-      <c r="R6">
-        <v>128.8409872672513</v>
-      </c>
       <c r="S6">
-        <v>1956665.126631989</v>
+        <v>16600</v>
+      </c>
+      <c r="T6">
+        <v>22133.33333333333</v>
       </c>
     </row>
     <row r="7">
@@ -835,25 +855,28 @@
         <v>40</v>
       </c>
       <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
         <v>11390</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>30</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>1.333333333333333</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>2</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>58700</v>
       </c>
-      <c r="R7">
-        <v>171.3184169901182</v>
-      </c>
       <c r="S7">
-        <v>2601755.692689928</v>
+        <v>29350</v>
+      </c>
+      <c r="T7">
+        <v>39133.33333333333</v>
       </c>
     </row>
     <row r="8">
@@ -902,25 +925,28 @@
         <v>40</v>
       </c>
       <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
         <v>11390</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>30</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>1.333333333333333</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>5</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>55200</v>
       </c>
-      <c r="R8">
-        <v>105.0714042925096</v>
-      </c>
       <c r="S8">
-        <v>1595684.393188912</v>
+        <v>11040</v>
+      </c>
+      <c r="T8">
+        <v>14720</v>
       </c>
     </row>
     <row r="9">
@@ -969,25 +995,28 @@
         <v>40</v>
       </c>
       <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9">
         <v>11390</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>30</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>1.333333333333333</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>5</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>55200</v>
       </c>
-      <c r="R9">
-        <v>105.0714042925096</v>
-      </c>
       <c r="S9">
-        <v>1595684.393188912</v>
+        <v>11040</v>
+      </c>
+      <c r="T9">
+        <v>14720</v>
       </c>
     </row>
     <row r="10">
@@ -1036,25 +1065,28 @@
         <v>40</v>
       </c>
       <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10">
         <v>11390</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>30</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>1.333333333333333</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>2</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>6500</v>
       </c>
-      <c r="R10">
-        <v>57.0087712549569</v>
-      </c>
       <c r="S10">
-        <v>865773.2061252787</v>
+        <v>3250</v>
+      </c>
+      <c r="T10">
+        <v>4333.333333333333</v>
       </c>
     </row>
     <row r="11">
@@ -1103,25 +1135,28 @@
         <v>40</v>
       </c>
       <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11">
         <v>11390</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>30</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>1.333333333333333</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>3</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>24300</v>
       </c>
-      <c r="R11">
-        <v>90</v>
-      </c>
       <c r="S11">
-        <v>1366800</v>
+        <v>8100</v>
+      </c>
+      <c r="T11">
+        <v>10800</v>
       </c>
     </row>
     <row r="12">
@@ -1170,25 +1205,28 @@
         <v>40</v>
       </c>
       <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12">
         <v>11390</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>30</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>1.333333333333333</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>5</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>55200</v>
       </c>
-      <c r="R12">
-        <v>105.0714042925096</v>
-      </c>
       <c r="S12">
-        <v>1595684.393188912</v>
+        <v>11040</v>
+      </c>
+      <c r="T12">
+        <v>14720</v>
       </c>
     </row>
     <row r="13">
@@ -1237,25 +1275,28 @@
         <v>40</v>
       </c>
       <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="N13">
         <v>11390</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>30</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>1.333333333333333</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>3</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>22000</v>
       </c>
-      <c r="R13">
-        <v>85.63488385776752</v>
-      </c>
       <c r="S13">
-        <v>1300508.436186629</v>
+        <v>7333.333333333333</v>
+      </c>
+      <c r="T13">
+        <v>9777.777777777777</v>
       </c>
     </row>
     <row r="14">
@@ -1304,25 +1345,28 @@
         <v>40</v>
       </c>
       <c r="M14">
+        <v>1</v>
+      </c>
+      <c r="N14">
         <v>11390</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>30</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>1.333333333333333</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>3</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>22000</v>
       </c>
-      <c r="R14">
-        <v>85.63488385776752</v>
-      </c>
       <c r="S14">
-        <v>1300508.436186629</v>
+        <v>7333.333333333333</v>
+      </c>
+      <c r="T14">
+        <v>9777.777777777777</v>
       </c>
     </row>
     <row r="15">
@@ -1371,25 +1415,28 @@
         <v>40</v>
       </c>
       <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="N15">
         <v>11390</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>30</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>1.333333333333333</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>3</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>24300</v>
       </c>
-      <c r="R15">
-        <v>90</v>
-      </c>
       <c r="S15">
-        <v>1366800</v>
+        <v>8100</v>
+      </c>
+      <c r="T15">
+        <v>10800</v>
       </c>
     </row>
     <row r="16">
@@ -1438,25 +1485,28 @@
         <v>40</v>
       </c>
       <c r="M16">
+        <v>1</v>
+      </c>
+      <c r="N16">
         <v>11390</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>30</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>1.333333333333333</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>2</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>5600</v>
       </c>
-      <c r="R16">
-        <v>52.91502622129181</v>
-      </c>
       <c r="S16">
-        <v>803602.8648806849</v>
+        <v>2800</v>
+      </c>
+      <c r="T16">
+        <v>3733.333333333333</v>
       </c>
     </row>
     <row r="17">
@@ -1505,25 +1555,28 @@
         <v>40</v>
       </c>
       <c r="M17">
+        <v>1</v>
+      </c>
+      <c r="N17">
         <v>11390</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>30</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>1.333333333333333</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>2</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>44000</v>
       </c>
-      <c r="R17">
-        <v>148.3239697419133</v>
-      </c>
       <c r="S17">
-        <v>2252546.687147189</v>
+        <v>22000</v>
+      </c>
+      <c r="T17">
+        <v>29333.33333333333</v>
       </c>
     </row>
     <row r="18">
@@ -1572,25 +1625,28 @@
         <v>40</v>
       </c>
       <c r="M18">
+        <v>1</v>
+      </c>
+      <c r="N18">
         <v>11390</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>30</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>1.333333333333333</v>
       </c>
-      <c r="P18">
-        <v>1</v>
-      </c>
       <c r="Q18">
+        <v>1</v>
+      </c>
+      <c r="R18">
         <v>17000</v>
       </c>
-      <c r="R18">
-        <v>130.384048104053</v>
-      </c>
       <c r="S18">
-        <v>1980099.077206884</v>
+        <v>17000</v>
+      </c>
+      <c r="T18">
+        <v>22666.66666666666</v>
       </c>
     </row>
     <row r="19">
@@ -1639,25 +1695,28 @@
         <v>40</v>
       </c>
       <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="N19">
         <v>11390</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>30</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>1.333333333333333</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>3</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>24300</v>
       </c>
-      <c r="R19">
-        <v>90</v>
-      </c>
       <c r="S19">
-        <v>1366800</v>
+        <v>8100</v>
+      </c>
+      <c r="T19">
+        <v>10800</v>
       </c>
     </row>
     <row r="20">
@@ -1706,25 +1765,28 @@
         <v>40</v>
       </c>
       <c r="M20">
+        <v>1</v>
+      </c>
+      <c r="N20">
         <v>11390</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>30</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>1.333333333333333</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>3</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>26100</v>
       </c>
-      <c r="R20">
-        <v>93.27379053088815</v>
-      </c>
       <c r="S20">
-        <v>1416517.965529088</v>
+        <v>8700</v>
+      </c>
+      <c r="T20">
+        <v>11600</v>
       </c>
     </row>
     <row r="21">
@@ -1773,25 +1835,28 @@
         <v>40</v>
       </c>
       <c r="M21">
+        <v>1</v>
+      </c>
+      <c r="N21">
         <v>11390</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>30</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>1.333333333333333</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>5</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>55200</v>
       </c>
-      <c r="R21">
-        <v>105.0714042925096</v>
-      </c>
       <c r="S21">
-        <v>1595684.393188912</v>
+        <v>11040</v>
+      </c>
+      <c r="T21">
+        <v>14720</v>
       </c>
     </row>
     <row r="22">
@@ -1840,25 +1905,28 @@
         <v>40</v>
       </c>
       <c r="M22">
+        <v>1</v>
+      </c>
+      <c r="N22">
         <v>11390</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>30</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>1.333333333333333</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>2</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>44000</v>
       </c>
-      <c r="R22">
-        <v>148.3239697419133</v>
-      </c>
       <c r="S22">
-        <v>2252546.687147189</v>
+        <v>22000</v>
+      </c>
+      <c r="T22">
+        <v>29333.33333333333</v>
       </c>
     </row>
     <row r="23">
@@ -1907,25 +1975,28 @@
         <v>40</v>
       </c>
       <c r="M23">
+        <v>1</v>
+      </c>
+      <c r="N23">
         <v>11390</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>30</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>1.333333333333333</v>
       </c>
-      <c r="P23">
-        <v>1</v>
-      </c>
       <c r="Q23">
+        <v>1</v>
+      </c>
+      <c r="R23">
         <v>3600</v>
       </c>
-      <c r="R23">
-        <v>60</v>
-      </c>
       <c r="S23">
-        <v>911200</v>
+        <v>3600</v>
+      </c>
+      <c r="T23">
+        <v>4800</v>
       </c>
     </row>
     <row r="24">
@@ -1974,25 +2045,28 @@
         <v>40</v>
       </c>
       <c r="M24">
+        <v>1</v>
+      </c>
+      <c r="N24">
         <v>11390</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>30</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>1.333333333333333</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>3</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>22000</v>
       </c>
-      <c r="R24">
-        <v>85.63488385776752</v>
-      </c>
       <c r="S24">
-        <v>1300508.436186629</v>
+        <v>7333.333333333333</v>
+      </c>
+      <c r="T24">
+        <v>9777.777777777777</v>
       </c>
     </row>
     <row r="25">
@@ -2041,25 +2115,28 @@
         <v>40</v>
       </c>
       <c r="M25">
+        <v>1</v>
+      </c>
+      <c r="N25">
         <v>11390</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>30</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>1.333333333333333</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>2</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>5600</v>
       </c>
-      <c r="R25">
-        <v>52.91502622129181</v>
-      </c>
       <c r="S25">
-        <v>803602.8648806849</v>
+        <v>2800</v>
+      </c>
+      <c r="T25">
+        <v>3733.333333333333</v>
       </c>
     </row>
     <row r="26">
@@ -2108,25 +2185,28 @@
         <v>40</v>
       </c>
       <c r="M26">
+        <v>1</v>
+      </c>
+      <c r="N26">
         <v>11390</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>30</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>1.333333333333333</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>2</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>58700</v>
       </c>
-      <c r="R26">
-        <v>171.3184169901182</v>
-      </c>
       <c r="S26">
-        <v>2601755.692689928</v>
+        <v>29350</v>
+      </c>
+      <c r="T26">
+        <v>39133.33333333333</v>
       </c>
     </row>
     <row r="27">
@@ -2175,25 +2255,28 @@
         <v>40</v>
       </c>
       <c r="M27">
+        <v>1</v>
+      </c>
+      <c r="N27">
         <v>11390</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>30</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>1.333333333333333</v>
       </c>
-      <c r="P27">
-        <v>1</v>
-      </c>
       <c r="Q27">
+        <v>1</v>
+      </c>
+      <c r="R27">
         <v>5400</v>
       </c>
-      <c r="R27">
-        <v>73.48469228349535</v>
-      </c>
       <c r="S27">
-        <v>1115987.526812016</v>
+        <v>5400</v>
+      </c>
+      <c r="T27">
+        <v>7200</v>
       </c>
     </row>
     <row r="28">
@@ -2242,25 +2325,28 @@
         <v>40</v>
       </c>
       <c r="M28">
+        <v>1</v>
+      </c>
+      <c r="N28">
         <v>11390</v>
       </c>
-      <c r="N28">
+      <c r="O28">
         <v>30</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>1.333333333333333</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <v>2</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <v>6500</v>
       </c>
-      <c r="R28">
-        <v>57.0087712549569</v>
-      </c>
       <c r="S28">
-        <v>865773.2061252787</v>
+        <v>3250</v>
+      </c>
+      <c r="T28">
+        <v>4333.333333333333</v>
       </c>
     </row>
     <row r="29">
@@ -2309,25 +2395,28 @@
         <v>40</v>
       </c>
       <c r="M29">
+        <v>1</v>
+      </c>
+      <c r="N29">
         <v>11390</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>30</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>1.333333333333333</v>
       </c>
-      <c r="P29">
-        <v>1</v>
-      </c>
       <c r="Q29">
+        <v>1</v>
+      </c>
+      <c r="R29">
         <v>3400</v>
       </c>
-      <c r="R29">
-        <v>58.309518948453</v>
-      </c>
       <c r="S29">
-        <v>885527.2277638395</v>
+        <v>3400</v>
+      </c>
+      <c r="T29">
+        <v>4533.333333333333</v>
       </c>
     </row>
     <row r="30">
@@ -2376,25 +2465,28 @@
         <v>40</v>
       </c>
       <c r="M30">
+        <v>1</v>
+      </c>
+      <c r="N30">
         <v>11390</v>
       </c>
-      <c r="N30">
+      <c r="O30">
         <v>30</v>
       </c>
-      <c r="O30">
+      <c r="P30">
         <v>1.333333333333333</v>
       </c>
-      <c r="P30">
+      <c r="Q30">
         <v>3</v>
       </c>
-      <c r="Q30">
+      <c r="R30">
         <v>26100</v>
       </c>
-      <c r="R30">
-        <v>93.27379053088815</v>
-      </c>
       <c r="S30">
-        <v>1416517.965529088</v>
+        <v>8700</v>
+      </c>
+      <c r="T30">
+        <v>11600</v>
       </c>
     </row>
     <row r="31">
@@ -2443,25 +2535,28 @@
         <v>40</v>
       </c>
       <c r="M31">
+        <v>1</v>
+      </c>
+      <c r="N31">
         <v>11390</v>
       </c>
-      <c r="N31">
+      <c r="O31">
         <v>30</v>
       </c>
-      <c r="O31">
+      <c r="P31">
         <v>1.333333333333333</v>
       </c>
-      <c r="P31">
+      <c r="Q31">
         <v>2</v>
       </c>
-      <c r="Q31">
+      <c r="R31">
         <v>28100</v>
       </c>
-      <c r="R31">
-        <v>118.532695911297</v>
-      </c>
       <c r="S31">
-        <v>1800116.54190623</v>
+        <v>14050</v>
+      </c>
+      <c r="T31">
+        <v>18733.33333333333</v>
       </c>
     </row>
     <row r="32">
@@ -2510,25 +2605,28 @@
         <v>40</v>
       </c>
       <c r="M32">
+        <v>1</v>
+      </c>
+      <c r="N32">
         <v>3730</v>
       </c>
-      <c r="N32">
+      <c r="O32">
         <v>32</v>
       </c>
-      <c r="O32">
+      <c r="P32">
         <v>1.25</v>
       </c>
-      <c r="P32">
-        <v>1</v>
-      </c>
       <c r="Q32">
+        <v>1</v>
+      </c>
+      <c r="R32">
         <v>7700</v>
       </c>
-      <c r="R32">
-        <v>87.74964387392122</v>
-      </c>
       <c r="S32">
-        <v>409132.7145621577</v>
+        <v>7700</v>
+      </c>
+      <c r="T32">
+        <v>9625</v>
       </c>
     </row>
     <row r="33">
@@ -2577,25 +2675,28 @@
         <v>40</v>
       </c>
       <c r="M33">
+        <v>1</v>
+      </c>
+      <c r="N33">
         <v>3730</v>
       </c>
-      <c r="N33">
+      <c r="O33">
         <v>32</v>
       </c>
-      <c r="O33">
+      <c r="P33">
         <v>1.25</v>
       </c>
-      <c r="P33">
+      <c r="Q33">
         <v>2</v>
       </c>
-      <c r="Q33">
+      <c r="R33">
         <v>20500</v>
       </c>
-      <c r="R33">
-        <v>101.2422836565829</v>
-      </c>
       <c r="S33">
-        <v>472042.147548818</v>
+        <v>10250</v>
+      </c>
+      <c r="T33">
+        <v>12812.5</v>
       </c>
     </row>
     <row r="34">
@@ -2644,25 +2745,28 @@
         <v>40</v>
       </c>
       <c r="M34">
+        <v>1</v>
+      </c>
+      <c r="N34">
         <v>3730</v>
       </c>
-      <c r="N34">
+      <c r="O34">
         <v>32</v>
       </c>
-      <c r="O34">
+      <c r="P34">
         <v>1.25</v>
       </c>
-      <c r="P34">
+      <c r="Q34">
         <v>2</v>
       </c>
-      <c r="Q34">
+      <c r="R34">
         <v>4400</v>
       </c>
-      <c r="R34">
-        <v>46.9041575982343</v>
-      </c>
       <c r="S34">
-        <v>218690.6348017674</v>
+        <v>2200</v>
+      </c>
+      <c r="T34">
+        <v>2750</v>
       </c>
     </row>
     <row r="35">
@@ -2711,25 +2815,28 @@
         <v>40</v>
       </c>
       <c r="M35">
+        <v>1</v>
+      </c>
+      <c r="N35">
         <v>3730</v>
       </c>
-      <c r="N35">
+      <c r="O35">
         <v>32</v>
       </c>
-      <c r="O35">
+      <c r="P35">
         <v>1.25</v>
       </c>
-      <c r="P35">
+      <c r="Q35">
         <v>2</v>
       </c>
-      <c r="Q35">
+      <c r="R35">
         <v>3600</v>
       </c>
-      <c r="R35">
-        <v>42.42640687119285</v>
-      </c>
       <c r="S35">
-        <v>197813.1220369367</v>
+        <v>1800</v>
+      </c>
+      <c r="T35">
+        <v>2250</v>
       </c>
     </row>
     <row r="36">
@@ -2778,25 +2885,28 @@
         <v>40</v>
       </c>
       <c r="M36">
+        <v>1</v>
+      </c>
+      <c r="N36">
         <v>3730</v>
       </c>
-      <c r="N36">
+      <c r="O36">
         <v>32</v>
       </c>
-      <c r="O36">
+      <c r="P36">
         <v>1.25</v>
       </c>
-      <c r="P36">
+      <c r="Q36">
         <v>4</v>
       </c>
-      <c r="Q36">
+      <c r="R36">
         <v>14300</v>
       </c>
-      <c r="R36">
-        <v>59.79130371550699</v>
-      </c>
       <c r="S36">
-        <v>278776.9535735513</v>
+        <v>3575</v>
+      </c>
+      <c r="T36">
+        <v>4468.75</v>
       </c>
     </row>
     <row r="37">
@@ -2845,25 +2955,28 @@
         <v>40</v>
       </c>
       <c r="M37">
+        <v>1</v>
+      </c>
+      <c r="N37">
         <v>3730</v>
       </c>
-      <c r="N37">
+      <c r="O37">
         <v>32</v>
       </c>
-      <c r="O37">
+      <c r="P37">
         <v>1.25</v>
       </c>
-      <c r="P37">
+      <c r="Q37">
         <v>4</v>
       </c>
-      <c r="Q37">
+      <c r="R37">
         <v>14300</v>
       </c>
-      <c r="R37">
-        <v>59.79130371550699</v>
-      </c>
       <c r="S37">
-        <v>278776.9535735513</v>
+        <v>3575</v>
+      </c>
+      <c r="T37">
+        <v>4468.75</v>
       </c>
     </row>
     <row r="38">
@@ -2912,25 +3025,28 @@
         <v>40</v>
       </c>
       <c r="M38">
+        <v>1</v>
+      </c>
+      <c r="N38">
         <v>3730</v>
       </c>
-      <c r="N38">
+      <c r="O38">
         <v>32</v>
       </c>
-      <c r="O38">
+      <c r="P38">
         <v>1.25</v>
       </c>
-      <c r="P38">
+      <c r="Q38">
         <v>2</v>
       </c>
-      <c r="Q38">
+      <c r="R38">
         <v>3600</v>
       </c>
-      <c r="R38">
-        <v>42.42640687119285</v>
-      </c>
       <c r="S38">
-        <v>197813.1220369367</v>
+        <v>1800</v>
+      </c>
+      <c r="T38">
+        <v>2250</v>
       </c>
     </row>
     <row r="39">
@@ -2979,25 +3095,28 @@
         <v>40</v>
       </c>
       <c r="M39">
+        <v>1</v>
+      </c>
+      <c r="N39">
         <v>3730</v>
       </c>
-      <c r="N39">
+      <c r="O39">
         <v>32</v>
       </c>
-      <c r="O39">
+      <c r="P39">
         <v>1.25</v>
       </c>
-      <c r="P39">
+      <c r="Q39">
         <v>2</v>
       </c>
-      <c r="Q39">
+      <c r="R39">
         <v>1900</v>
       </c>
-      <c r="R39">
-        <v>30.82207001484488</v>
-      </c>
       <c r="S39">
-        <v>143707.9014442143</v>
+        <v>950</v>
+      </c>
+      <c r="T39">
+        <v>1187.5</v>
       </c>
     </row>
     <row r="40">
@@ -3046,25 +3165,28 @@
         <v>40</v>
       </c>
       <c r="M40">
+        <v>1</v>
+      </c>
+      <c r="N40">
         <v>3730</v>
       </c>
-      <c r="N40">
+      <c r="O40">
         <v>32</v>
       </c>
-      <c r="O40">
+      <c r="P40">
         <v>1.25</v>
       </c>
-      <c r="P40">
+      <c r="Q40">
         <v>5</v>
       </c>
-      <c r="Q40">
+      <c r="R40">
         <v>19400</v>
       </c>
-      <c r="R40">
-        <v>62.28964600958975</v>
-      </c>
       <c r="S40">
-        <v>290425.4745197122</v>
+        <v>3880</v>
+      </c>
+      <c r="T40">
+        <v>4850</v>
       </c>
     </row>
     <row r="41">
@@ -3113,25 +3235,28 @@
         <v>40</v>
       </c>
       <c r="M41">
+        <v>1</v>
+      </c>
+      <c r="N41">
         <v>3730</v>
       </c>
-      <c r="N41">
+      <c r="O41">
         <v>32</v>
       </c>
-      <c r="O41">
+      <c r="P41">
         <v>1.25</v>
       </c>
-      <c r="P41">
+      <c r="Q41">
         <v>3</v>
       </c>
-      <c r="Q41">
+      <c r="R41">
         <v>8500</v>
       </c>
-      <c r="R41">
-        <v>53.22906474223771</v>
-      </c>
       <c r="S41">
-        <v>248180.5143606833</v>
+        <v>2833.333333333333</v>
+      </c>
+      <c r="T41">
+        <v>3541.666666666667</v>
       </c>
     </row>
     <row r="42">
@@ -3180,25 +3305,28 @@
         <v>40</v>
       </c>
       <c r="M42">
+        <v>1</v>
+      </c>
+      <c r="N42">
         <v>3730</v>
       </c>
-      <c r="N42">
+      <c r="O42">
         <v>32</v>
       </c>
-      <c r="O42">
+      <c r="P42">
         <v>1.25</v>
       </c>
-      <c r="P42">
-        <v>1</v>
-      </c>
       <c r="Q42">
+        <v>1</v>
+      </c>
+      <c r="R42">
         <v>4500</v>
       </c>
-      <c r="R42">
-        <v>67.08203932499369</v>
-      </c>
       <c r="S42">
-        <v>312770.008352783</v>
+        <v>4500</v>
+      </c>
+      <c r="T42">
+        <v>5625</v>
       </c>
     </row>
     <row r="43">
@@ -3247,25 +3375,28 @@
         <v>40</v>
       </c>
       <c r="M43">
+        <v>1</v>
+      </c>
+      <c r="N43">
         <v>3730</v>
       </c>
-      <c r="N43">
+      <c r="O43">
         <v>32</v>
       </c>
-      <c r="O43">
+      <c r="P43">
         <v>1.25</v>
       </c>
-      <c r="P43">
-        <v>1</v>
-      </c>
       <c r="Q43">
+        <v>1</v>
+      </c>
+      <c r="R43">
         <v>1800</v>
       </c>
-      <c r="R43">
-        <v>42.42640687119285</v>
-      </c>
       <c r="S43">
-        <v>197813.1220369367</v>
+        <v>1800</v>
+      </c>
+      <c r="T43">
+        <v>2250</v>
       </c>
     </row>
     <row r="44">
@@ -3314,25 +3445,28 @@
         <v>40</v>
       </c>
       <c r="M44">
+        <v>1</v>
+      </c>
+      <c r="N44">
         <v>3730</v>
       </c>
-      <c r="N44">
+      <c r="O44">
         <v>32</v>
       </c>
-      <c r="O44">
+      <c r="P44">
         <v>1.25</v>
       </c>
-      <c r="P44">
+      <c r="Q44">
         <v>2</v>
       </c>
-      <c r="Q44">
+      <c r="R44">
         <v>9700</v>
       </c>
-      <c r="R44">
-        <v>69.6419413859206</v>
-      </c>
       <c r="S44">
-        <v>324705.5517118548</v>
+        <v>4850</v>
+      </c>
+      <c r="T44">
+        <v>6062.5</v>
       </c>
     </row>
     <row r="45">
@@ -3381,25 +3515,28 @@
         <v>40</v>
       </c>
       <c r="M45">
+        <v>1</v>
+      </c>
+      <c r="N45">
         <v>3730</v>
       </c>
-      <c r="N45">
+      <c r="O45">
         <v>32</v>
       </c>
-      <c r="O45">
+      <c r="P45">
         <v>1.25</v>
       </c>
-      <c r="P45">
+      <c r="Q45">
         <v>4</v>
       </c>
-      <c r="Q45">
+      <c r="R45">
         <v>14300</v>
       </c>
-      <c r="R45">
-        <v>59.79130371550699</v>
-      </c>
       <c r="S45">
-        <v>278776.9535735513</v>
+        <v>3575</v>
+      </c>
+      <c r="T45">
+        <v>4468.75</v>
       </c>
     </row>
     <row r="46">
@@ -3448,25 +3585,28 @@
         <v>40</v>
       </c>
       <c r="M46">
+        <v>1</v>
+      </c>
+      <c r="N46">
         <v>3730</v>
       </c>
-      <c r="N46">
+      <c r="O46">
         <v>32</v>
       </c>
-      <c r="O46">
+      <c r="P46">
         <v>1.25</v>
       </c>
-      <c r="P46">
+      <c r="Q46">
         <v>2</v>
       </c>
-      <c r="Q46">
+      <c r="R46">
         <v>20500</v>
       </c>
-      <c r="R46">
-        <v>101.2422836565829</v>
-      </c>
       <c r="S46">
-        <v>472042.147548818</v>
+        <v>10250</v>
+      </c>
+      <c r="T46">
+        <v>12812.5</v>
       </c>
     </row>
     <row r="47">
@@ -3515,25 +3655,28 @@
         <v>40</v>
       </c>
       <c r="M47">
+        <v>1</v>
+      </c>
+      <c r="N47">
         <v>3730</v>
       </c>
-      <c r="N47">
+      <c r="O47">
         <v>32</v>
       </c>
-      <c r="O47">
+      <c r="P47">
         <v>1.25</v>
       </c>
-      <c r="P47">
-        <v>1</v>
-      </c>
       <c r="Q47">
+        <v>1</v>
+      </c>
+      <c r="R47">
         <v>9000</v>
       </c>
-      <c r="R47">
-        <v>94.86832980505137</v>
-      </c>
       <c r="S47">
-        <v>442323.587716052</v>
+        <v>9000</v>
+      </c>
+      <c r="T47">
+        <v>11250</v>
       </c>
     </row>
     <row r="48">
@@ -3582,25 +3725,28 @@
         <v>40</v>
       </c>
       <c r="M48">
+        <v>1</v>
+      </c>
+      <c r="N48">
         <v>3730</v>
       </c>
-      <c r="N48">
+      <c r="O48">
         <v>32</v>
       </c>
-      <c r="O48">
+      <c r="P48">
         <v>1.25</v>
       </c>
-      <c r="P48">
+      <c r="Q48">
         <v>2</v>
       </c>
-      <c r="Q48">
+      <c r="R48">
         <v>4400</v>
       </c>
-      <c r="R48">
-        <v>46.9041575982343</v>
-      </c>
       <c r="S48">
-        <v>218690.6348017674</v>
+        <v>2200</v>
+      </c>
+      <c r="T48">
+        <v>2750</v>
       </c>
     </row>
     <row r="49">
@@ -3649,25 +3795,28 @@
         <v>40</v>
       </c>
       <c r="M49">
+        <v>1</v>
+      </c>
+      <c r="N49">
         <v>3730</v>
       </c>
-      <c r="N49">
+      <c r="O49">
         <v>32</v>
       </c>
-      <c r="O49">
+      <c r="P49">
         <v>1.25</v>
       </c>
-      <c r="P49">
+      <c r="Q49">
         <v>2</v>
       </c>
-      <c r="Q49">
+      <c r="R49">
         <v>9700</v>
       </c>
-      <c r="R49">
-        <v>69.6419413859206</v>
-      </c>
       <c r="S49">
-        <v>324705.5517118548</v>
+        <v>4850</v>
+      </c>
+      <c r="T49">
+        <v>6062.5</v>
       </c>
     </row>
     <row r="50">
@@ -3716,25 +3865,28 @@
         <v>40</v>
       </c>
       <c r="M50">
+        <v>1</v>
+      </c>
+      <c r="N50">
         <v>3730</v>
       </c>
-      <c r="N50">
+      <c r="O50">
         <v>32</v>
       </c>
-      <c r="O50">
+      <c r="P50">
         <v>1.25</v>
       </c>
-      <c r="P50">
+      <c r="Q50">
         <v>4</v>
       </c>
-      <c r="Q50">
+      <c r="R50">
         <v>14300</v>
       </c>
-      <c r="R50">
-        <v>59.79130371550699</v>
-      </c>
       <c r="S50">
-        <v>278776.9535735513</v>
+        <v>3575</v>
+      </c>
+      <c r="T50">
+        <v>4468.75</v>
       </c>
     </row>
     <row r="51">
@@ -3783,25 +3935,28 @@
         <v>40</v>
       </c>
       <c r="M51">
+        <v>1</v>
+      </c>
+      <c r="N51">
         <v>3730</v>
       </c>
-      <c r="N51">
+      <c r="O51">
         <v>32</v>
       </c>
-      <c r="O51">
+      <c r="P51">
         <v>1.25</v>
       </c>
-      <c r="P51">
-        <v>1</v>
-      </c>
       <c r="Q51">
+        <v>1</v>
+      </c>
+      <c r="R51">
         <v>1700</v>
       </c>
-      <c r="R51">
-        <v>41.23105625617661</v>
-      </c>
       <c r="S51">
-        <v>192239.7997944234</v>
+        <v>1700</v>
+      </c>
+      <c r="T51">
+        <v>2125</v>
       </c>
     </row>
     <row r="52">
@@ -3850,25 +4005,28 @@
         <v>40</v>
       </c>
       <c r="M52">
+        <v>1</v>
+      </c>
+      <c r="N52">
         <v>3730</v>
       </c>
-      <c r="N52">
+      <c r="O52">
         <v>32</v>
       </c>
-      <c r="O52">
+      <c r="P52">
         <v>1.25</v>
       </c>
-      <c r="P52">
+      <c r="Q52">
         <v>3</v>
       </c>
-      <c r="Q52">
+      <c r="R52">
         <v>8500</v>
       </c>
-      <c r="R52">
-        <v>53.22906474223771</v>
-      </c>
       <c r="S52">
-        <v>248180.5143606833</v>
+        <v>2833.333333333333</v>
+      </c>
+      <c r="T52">
+        <v>3541.666666666667</v>
       </c>
     </row>
     <row r="53">
@@ -3917,25 +4075,28 @@
         <v>40</v>
       </c>
       <c r="M53">
+        <v>1</v>
+      </c>
+      <c r="N53">
         <v>3730</v>
       </c>
-      <c r="N53">
+      <c r="O53">
         <v>32</v>
       </c>
-      <c r="O53">
+      <c r="P53">
         <v>1.25</v>
       </c>
-      <c r="P53">
+      <c r="Q53">
         <v>3</v>
       </c>
-      <c r="Q53">
+      <c r="R53">
         <v>15500</v>
       </c>
-      <c r="R53">
-        <v>71.87952884282609</v>
-      </c>
       <c r="S53">
-        <v>335138.3032296766</v>
+        <v>5166.666666666667</v>
+      </c>
+      <c r="T53">
+        <v>6458.333333333334</v>
       </c>
     </row>
     <row r="54">
@@ -3984,25 +4145,28 @@
         <v>40</v>
       </c>
       <c r="M54">
+        <v>1</v>
+      </c>
+      <c r="N54">
         <v>3730</v>
       </c>
-      <c r="N54">
+      <c r="O54">
         <v>32</v>
       </c>
-      <c r="O54">
+      <c r="P54">
         <v>1.25</v>
       </c>
-      <c r="P54">
+      <c r="Q54">
         <v>3</v>
       </c>
-      <c r="Q54">
+      <c r="R54">
         <v>15500</v>
       </c>
-      <c r="R54">
-        <v>71.87952884282609</v>
-      </c>
       <c r="S54">
-        <v>335138.3032296766</v>
+        <v>5166.666666666667</v>
+      </c>
+      <c r="T54">
+        <v>6458.333333333334</v>
       </c>
     </row>
     <row r="55">
@@ -4051,25 +4215,28 @@
         <v>40</v>
       </c>
       <c r="M55">
+        <v>1</v>
+      </c>
+      <c r="N55">
         <v>3730</v>
       </c>
-      <c r="N55">
+      <c r="O55">
         <v>32</v>
       </c>
-      <c r="O55">
+      <c r="P55">
         <v>1.25</v>
       </c>
-      <c r="P55">
+      <c r="Q55">
         <v>5</v>
       </c>
-      <c r="Q55">
+      <c r="R55">
         <v>19400</v>
       </c>
-      <c r="R55">
-        <v>62.28964600958975</v>
-      </c>
       <c r="S55">
-        <v>290425.4745197122</v>
+        <v>3880</v>
+      </c>
+      <c r="T55">
+        <v>4850</v>
       </c>
     </row>
     <row r="56">
@@ -4118,25 +4285,28 @@
         <v>40</v>
       </c>
       <c r="M56">
+        <v>1</v>
+      </c>
+      <c r="N56">
         <v>3730</v>
       </c>
-      <c r="N56">
+      <c r="O56">
         <v>32</v>
       </c>
-      <c r="O56">
+      <c r="P56">
         <v>1.25</v>
       </c>
-      <c r="P56">
+      <c r="Q56">
         <v>3</v>
       </c>
-      <c r="Q56">
+      <c r="R56">
         <v>8500</v>
       </c>
-      <c r="R56">
-        <v>53.22906474223771</v>
-      </c>
       <c r="S56">
-        <v>248180.5143606833</v>
+        <v>2833.333333333333</v>
+      </c>
+      <c r="T56">
+        <v>3541.666666666667</v>
       </c>
     </row>
     <row r="57">
@@ -4185,25 +4355,28 @@
         <v>40</v>
       </c>
       <c r="M57">
+        <v>1</v>
+      </c>
+      <c r="N57">
         <v>3730</v>
       </c>
-      <c r="N57">
+      <c r="O57">
         <v>32</v>
       </c>
-      <c r="O57">
+      <c r="P57">
         <v>1.25</v>
       </c>
-      <c r="P57">
+      <c r="Q57">
         <v>3</v>
       </c>
-      <c r="Q57">
+      <c r="R57">
         <v>15500</v>
       </c>
-      <c r="R57">
-        <v>71.87952884282609</v>
-      </c>
       <c r="S57">
-        <v>335138.3032296766</v>
+        <v>5166.666666666667</v>
+      </c>
+      <c r="T57">
+        <v>6458.333333333334</v>
       </c>
     </row>
     <row r="58">
@@ -4252,25 +4425,28 @@
         <v>40</v>
       </c>
       <c r="M58">
+        <v>1</v>
+      </c>
+      <c r="N58">
         <v>3730</v>
       </c>
-      <c r="N58">
+      <c r="O58">
         <v>32</v>
       </c>
-      <c r="O58">
+      <c r="P58">
         <v>1.25</v>
       </c>
-      <c r="P58">
+      <c r="Q58">
         <v>5</v>
       </c>
-      <c r="Q58">
+      <c r="R58">
         <v>19400</v>
       </c>
-      <c r="R58">
-        <v>62.28964600958975</v>
-      </c>
       <c r="S58">
-        <v>290425.4745197122</v>
+        <v>3880</v>
+      </c>
+      <c r="T58">
+        <v>4850</v>
       </c>
     </row>
     <row r="59">
@@ -4319,25 +4495,28 @@
         <v>40</v>
       </c>
       <c r="M59">
+        <v>1</v>
+      </c>
+      <c r="N59">
         <v>3730</v>
       </c>
-      <c r="N59">
+      <c r="O59">
         <v>32</v>
       </c>
-      <c r="O59">
+      <c r="P59">
         <v>1.25</v>
       </c>
-      <c r="P59">
+      <c r="Q59">
         <v>5</v>
       </c>
-      <c r="Q59">
+      <c r="R59">
         <v>19400</v>
       </c>
-      <c r="R59">
-        <v>62.28964600958975</v>
-      </c>
       <c r="S59">
-        <v>290425.4745197122</v>
+        <v>3880</v>
+      </c>
+      <c r="T59">
+        <v>4850</v>
       </c>
     </row>
     <row r="60">
@@ -4386,25 +4565,28 @@
         <v>40</v>
       </c>
       <c r="M60">
+        <v>1</v>
+      </c>
+      <c r="N60">
         <v>3730</v>
       </c>
-      <c r="N60">
+      <c r="O60">
         <v>32</v>
       </c>
-      <c r="O60">
+      <c r="P60">
         <v>1.25</v>
       </c>
-      <c r="P60">
+      <c r="Q60">
         <v>2</v>
       </c>
-      <c r="Q60">
+      <c r="R60">
         <v>1900</v>
       </c>
-      <c r="R60">
-        <v>30.82207001484488</v>
-      </c>
       <c r="S60">
-        <v>143707.9014442143</v>
+        <v>950</v>
+      </c>
+      <c r="T60">
+        <v>1187.5</v>
       </c>
     </row>
     <row r="61">
@@ -4453,25 +4635,28 @@
         <v>40</v>
       </c>
       <c r="M61">
+        <v>1</v>
+      </c>
+      <c r="N61">
         <v>3730</v>
       </c>
-      <c r="N61">
+      <c r="O61">
         <v>32</v>
       </c>
-      <c r="O61">
+      <c r="P61">
         <v>1.25</v>
       </c>
-      <c r="P61">
+      <c r="Q61">
         <v>5</v>
       </c>
-      <c r="Q61">
+      <c r="R61">
         <v>19400</v>
       </c>
-      <c r="R61">
-        <v>62.28964600958975</v>
-      </c>
       <c r="S61">
-        <v>290425.4745197122</v>
+        <v>3880</v>
+      </c>
+      <c r="T61">
+        <v>4850</v>
       </c>
     </row>
     <row r="62">
@@ -4520,25 +4705,28 @@
         <v>40</v>
       </c>
       <c r="M62">
+        <v>1</v>
+      </c>
+      <c r="N62">
         <v>3730</v>
       </c>
-      <c r="N62">
+      <c r="O62">
         <v>32</v>
       </c>
-      <c r="O62">
+      <c r="P62">
         <v>1.25</v>
       </c>
-      <c r="P62">
-        <v>1</v>
-      </c>
       <c r="Q62">
+        <v>1</v>
+      </c>
+      <c r="R62">
         <v>2900</v>
       </c>
-      <c r="R62">
-        <v>53.85164807134504</v>
-      </c>
       <c r="S62">
-        <v>251083.3091326462</v>
+        <v>2900</v>
+      </c>
+      <c r="T62">
+        <v>3625</v>
       </c>
     </row>
     <row r="63">
@@ -4587,25 +4775,28 @@
         <v>40</v>
       </c>
       <c r="M63">
+        <v>1</v>
+      </c>
+      <c r="N63">
         <v>3730</v>
       </c>
-      <c r="N63">
+      <c r="O63">
         <v>32</v>
       </c>
-      <c r="O63">
+      <c r="P63">
         <v>1.25</v>
       </c>
-      <c r="P63">
-        <v>1</v>
-      </c>
       <c r="Q63">
+        <v>1</v>
+      </c>
+      <c r="R63">
         <v>4300</v>
       </c>
-      <c r="R63">
-        <v>65.57438524302</v>
-      </c>
       <c r="S63">
-        <v>305740.5711955808</v>
+        <v>4300</v>
+      </c>
+      <c r="T63">
+        <v>5375</v>
       </c>
     </row>
     <row r="64">
@@ -4654,25 +4845,28 @@
         <v>40</v>
       </c>
       <c r="M64">
+        <v>1</v>
+      </c>
+      <c r="N64">
         <v>3550</v>
       </c>
-      <c r="N64">
+      <c r="O64">
         <v>32</v>
       </c>
-      <c r="O64">
+      <c r="P64">
         <v>1.25</v>
       </c>
-      <c r="P64">
-        <v>1</v>
-      </c>
       <c r="Q64">
+        <v>1</v>
+      </c>
+      <c r="R64">
         <v>23700</v>
       </c>
-      <c r="R64">
-        <v>153.9480431834065</v>
-      </c>
       <c r="S64">
-        <v>683144.4416263665</v>
+        <v>23700</v>
+      </c>
+      <c r="T64">
+        <v>29625</v>
       </c>
     </row>
     <row r="65">
@@ -4721,25 +4915,28 @@
         <v>40</v>
       </c>
       <c r="M65">
+        <v>1</v>
+      </c>
+      <c r="N65">
         <v>3550</v>
       </c>
-      <c r="N65">
+      <c r="O65">
         <v>32</v>
       </c>
-      <c r="O65">
+      <c r="P65">
         <v>1.25</v>
       </c>
-      <c r="P65">
-        <v>1</v>
-      </c>
       <c r="Q65">
+        <v>1</v>
+      </c>
+      <c r="R65">
         <v>1900</v>
       </c>
-      <c r="R65">
-        <v>43.58898943540674</v>
-      </c>
       <c r="S65">
-        <v>193426.1406196174</v>
+        <v>1900</v>
+      </c>
+      <c r="T65">
+        <v>2375</v>
       </c>
     </row>
     <row r="66">
@@ -4788,25 +4985,28 @@
         <v>40</v>
       </c>
       <c r="M66">
+        <v>1</v>
+      </c>
+      <c r="N66">
         <v>3550</v>
       </c>
-      <c r="N66">
+      <c r="O66">
         <v>32</v>
       </c>
-      <c r="O66">
+      <c r="P66">
         <v>1.25</v>
       </c>
-      <c r="P66">
-        <v>1</v>
-      </c>
       <c r="Q66">
+        <v>1</v>
+      </c>
+      <c r="R66">
         <v>2000</v>
       </c>
-      <c r="R66">
-        <v>44.7213595499958</v>
-      </c>
       <c r="S66">
-        <v>198451.0330031063</v>
+        <v>2000</v>
+      </c>
+      <c r="T66">
+        <v>2500</v>
       </c>
     </row>
     <row r="67">
@@ -4855,25 +5055,28 @@
         <v>40</v>
       </c>
       <c r="M67">
+        <v>1</v>
+      </c>
+      <c r="N67">
         <v>3550</v>
       </c>
-      <c r="N67">
+      <c r="O67">
         <v>32</v>
       </c>
-      <c r="O67">
+      <c r="P67">
         <v>1.25</v>
       </c>
-      <c r="P67">
+      <c r="Q67">
         <v>3</v>
       </c>
-      <c r="Q67">
+      <c r="R67">
         <v>1300</v>
       </c>
-      <c r="R67">
-        <v>20.81665999466133</v>
-      </c>
       <c r="S67">
-        <v>92373.92872630963</v>
+        <v>433.3333333333333</v>
+      </c>
+      <c r="T67">
+        <v>541.6666666666666</v>
       </c>
     </row>
     <row r="68">
@@ -4922,25 +5125,28 @@
         <v>40</v>
       </c>
       <c r="M68">
+        <v>1</v>
+      </c>
+      <c r="N68">
         <v>3550</v>
       </c>
-      <c r="N68">
+      <c r="O68">
         <v>32</v>
       </c>
-      <c r="O68">
+      <c r="P68">
         <v>1.25</v>
       </c>
-      <c r="P68">
-        <v>1</v>
-      </c>
       <c r="Q68">
+        <v>1</v>
+      </c>
+      <c r="R68">
         <v>700</v>
       </c>
-      <c r="R68">
-        <v>26.45751311064591</v>
-      </c>
       <c r="S68">
-        <v>117405.2144284912</v>
+        <v>700</v>
+      </c>
+      <c r="T68">
+        <v>875</v>
       </c>
     </row>
     <row r="69">
@@ -4989,25 +5195,28 @@
         <v>40</v>
       </c>
       <c r="M69">
+        <v>1</v>
+      </c>
+      <c r="N69">
         <v>3550</v>
       </c>
-      <c r="N69">
+      <c r="O69">
         <v>32</v>
       </c>
-      <c r="O69">
+      <c r="P69">
         <v>1.25</v>
       </c>
-      <c r="P69">
+      <c r="Q69">
         <v>2</v>
       </c>
-      <c r="Q69">
+      <c r="R69">
         <v>1800</v>
       </c>
-      <c r="R69">
-        <v>30</v>
-      </c>
       <c r="S69">
-        <v>133125</v>
+        <v>900</v>
+      </c>
+      <c r="T69">
+        <v>1125</v>
       </c>
     </row>
     <row r="70">
@@ -5056,25 +5265,28 @@
         <v>40</v>
       </c>
       <c r="M70">
+        <v>1</v>
+      </c>
+      <c r="N70">
         <v>3550</v>
       </c>
-      <c r="N70">
+      <c r="O70">
         <v>32</v>
       </c>
-      <c r="O70">
+      <c r="P70">
         <v>1.25</v>
       </c>
-      <c r="P70">
+      <c r="Q70">
         <v>4</v>
       </c>
-      <c r="Q70">
+      <c r="R70">
         <v>16800</v>
       </c>
-      <c r="R70">
-        <v>64.8074069840786</v>
-      </c>
       <c r="S70">
-        <v>287582.8684918488</v>
+        <v>4200</v>
+      </c>
+      <c r="T70">
+        <v>5250</v>
       </c>
     </row>
     <row r="71">
@@ -5123,25 +5335,28 @@
         <v>40</v>
       </c>
       <c r="M71">
+        <v>1</v>
+      </c>
+      <c r="N71">
         <v>3550</v>
       </c>
-      <c r="N71">
+      <c r="O71">
         <v>32</v>
       </c>
-      <c r="O71">
+      <c r="P71">
         <v>1.25</v>
       </c>
-      <c r="P71">
+      <c r="Q71">
         <v>2</v>
       </c>
-      <c r="Q71">
+      <c r="R71">
         <v>1400</v>
       </c>
-      <c r="R71">
-        <v>26.45751311064591</v>
-      </c>
       <c r="S71">
-        <v>117405.2144284912</v>
+        <v>700</v>
+      </c>
+      <c r="T71">
+        <v>875</v>
       </c>
     </row>
     <row r="72">
@@ -5190,25 +5405,28 @@
         <v>40</v>
       </c>
       <c r="M72">
+        <v>1</v>
+      </c>
+      <c r="N72">
         <v>3550</v>
       </c>
-      <c r="N72">
+      <c r="O72">
         <v>32</v>
       </c>
-      <c r="O72">
+      <c r="P72">
         <v>1.25</v>
       </c>
-      <c r="P72">
+      <c r="Q72">
         <v>5</v>
       </c>
-      <c r="Q72">
+      <c r="R72">
         <v>9200</v>
       </c>
-      <c r="R72">
-        <v>42.89522117905443</v>
-      </c>
       <c r="S72">
-        <v>190347.543982054</v>
+        <v>1840</v>
+      </c>
+      <c r="T72">
+        <v>2300</v>
       </c>
     </row>
     <row r="73">
@@ -5257,25 +5475,28 @@
         <v>40</v>
       </c>
       <c r="M73">
+        <v>1</v>
+      </c>
+      <c r="N73">
         <v>3550</v>
       </c>
-      <c r="N73">
+      <c r="O73">
         <v>32</v>
       </c>
-      <c r="O73">
+      <c r="P73">
         <v>1.25</v>
       </c>
-      <c r="P73">
-        <v>1</v>
-      </c>
       <c r="Q73">
+        <v>1</v>
+      </c>
+      <c r="R73">
         <v>16600</v>
       </c>
-      <c r="R73">
-        <v>128.8409872672513</v>
-      </c>
       <c r="S73">
-        <v>571731.8809984274</v>
+        <v>16600</v>
+      </c>
+      <c r="T73">
+        <v>20750</v>
       </c>
     </row>
     <row r="74">
@@ -5324,25 +5545,28 @@
         <v>40</v>
       </c>
       <c r="M74">
+        <v>1</v>
+      </c>
+      <c r="N74">
         <v>3550</v>
       </c>
-      <c r="N74">
+      <c r="O74">
         <v>32</v>
       </c>
-      <c r="O74">
+      <c r="P74">
         <v>1.25</v>
       </c>
-      <c r="P74">
+      <c r="Q74">
         <v>5</v>
       </c>
-      <c r="Q74">
+      <c r="R74">
         <v>9200</v>
       </c>
-      <c r="R74">
-        <v>42.89522117905443</v>
-      </c>
       <c r="S74">
-        <v>190347.543982054</v>
+        <v>1840</v>
+      </c>
+      <c r="T74">
+        <v>2300</v>
       </c>
     </row>
     <row r="75">
@@ -5391,25 +5615,28 @@
         <v>40</v>
       </c>
       <c r="M75">
+        <v>1</v>
+      </c>
+      <c r="N75">
         <v>3550</v>
       </c>
-      <c r="N75">
+      <c r="O75">
         <v>32</v>
       </c>
-      <c r="O75">
+      <c r="P75">
         <v>1.25</v>
       </c>
-      <c r="P75">
+      <c r="Q75">
         <v>2</v>
       </c>
-      <c r="Q75">
+      <c r="R75">
         <v>900</v>
       </c>
-      <c r="R75">
-        <v>21.21320343559643</v>
-      </c>
       <c r="S75">
-        <v>94133.59024545914</v>
+        <v>450</v>
+      </c>
+      <c r="T75">
+        <v>562.5</v>
       </c>
     </row>
     <row r="76">
@@ -5458,25 +5685,28 @@
         <v>40</v>
       </c>
       <c r="M76">
+        <v>1</v>
+      </c>
+      <c r="N76">
         <v>3550</v>
       </c>
-      <c r="N76">
+      <c r="O76">
         <v>32</v>
       </c>
-      <c r="O76">
+      <c r="P76">
         <v>1.25</v>
       </c>
-      <c r="P76">
-        <v>1</v>
-      </c>
       <c r="Q76">
+        <v>1</v>
+      </c>
+      <c r="R76">
         <v>1700</v>
       </c>
-      <c r="R76">
-        <v>41.23105625617661</v>
-      </c>
       <c r="S76">
-        <v>182962.8121367837</v>
+        <v>1700</v>
+      </c>
+      <c r="T76">
+        <v>2125</v>
       </c>
     </row>
     <row r="77">
@@ -5525,25 +5755,28 @@
         <v>40</v>
       </c>
       <c r="M77">
+        <v>1</v>
+      </c>
+      <c r="N77">
         <v>3550</v>
       </c>
-      <c r="N77">
+      <c r="O77">
         <v>32</v>
       </c>
-      <c r="O77">
+      <c r="P77">
         <v>1.25</v>
       </c>
-      <c r="P77">
+      <c r="Q77">
         <v>4</v>
       </c>
-      <c r="Q77">
+      <c r="R77">
         <v>16800</v>
       </c>
-      <c r="R77">
-        <v>64.8074069840786</v>
-      </c>
       <c r="S77">
-        <v>287582.8684918488</v>
+        <v>4200</v>
+      </c>
+      <c r="T77">
+        <v>5250</v>
       </c>
     </row>
     <row r="78">
@@ -5592,25 +5825,28 @@
         <v>40</v>
       </c>
       <c r="M78">
+        <v>1</v>
+      </c>
+      <c r="N78">
         <v>3550</v>
       </c>
-      <c r="N78">
+      <c r="O78">
         <v>32</v>
       </c>
-      <c r="O78">
+      <c r="P78">
         <v>1.25</v>
       </c>
-      <c r="P78">
+      <c r="Q78">
         <v>2</v>
       </c>
-      <c r="Q78">
+      <c r="R78">
         <v>10700</v>
       </c>
-      <c r="R78">
-        <v>73.14369419163897</v>
-      </c>
       <c r="S78">
-        <v>324575.1429753979</v>
+        <v>5350</v>
+      </c>
+      <c r="T78">
+        <v>6687.5</v>
       </c>
     </row>
     <row r="79">
@@ -5659,25 +5895,28 @@
         <v>40</v>
       </c>
       <c r="M79">
+        <v>1</v>
+      </c>
+      <c r="N79">
         <v>3550</v>
       </c>
-      <c r="N79">
+      <c r="O79">
         <v>32</v>
       </c>
-      <c r="O79">
+      <c r="P79">
         <v>1.25</v>
       </c>
-      <c r="P79">
+      <c r="Q79">
         <v>2</v>
       </c>
-      <c r="Q79">
+      <c r="R79">
         <v>900</v>
       </c>
-      <c r="R79">
-        <v>21.21320343559643</v>
-      </c>
       <c r="S79">
-        <v>94133.59024545914</v>
+        <v>450</v>
+      </c>
+      <c r="T79">
+        <v>562.5</v>
       </c>
     </row>
     <row r="80">
@@ -5726,25 +5965,28 @@
         <v>40</v>
       </c>
       <c r="M80">
+        <v>1</v>
+      </c>
+      <c r="N80">
         <v>3550</v>
       </c>
-      <c r="N80">
+      <c r="O80">
         <v>32</v>
       </c>
-      <c r="O80">
+      <c r="P80">
         <v>1.25</v>
       </c>
-      <c r="P80">
-        <v>1</v>
-      </c>
       <c r="Q80">
+        <v>1</v>
+      </c>
+      <c r="R80">
         <v>1500</v>
       </c>
-      <c r="R80">
-        <v>38.72983346207417</v>
-      </c>
       <c r="S80">
-        <v>171863.6359879541</v>
+        <v>1500</v>
+      </c>
+      <c r="T80">
+        <v>1875</v>
       </c>
     </row>
     <row r="81">
@@ -5793,25 +6035,28 @@
         <v>40</v>
       </c>
       <c r="M81">
+        <v>1</v>
+      </c>
+      <c r="N81">
         <v>3550</v>
       </c>
-      <c r="N81">
+      <c r="O81">
         <v>32</v>
       </c>
-      <c r="O81">
+      <c r="P81">
         <v>1.25</v>
       </c>
-      <c r="P81">
+      <c r="Q81">
         <v>5</v>
       </c>
-      <c r="Q81">
+      <c r="R81">
         <v>9200</v>
       </c>
-      <c r="R81">
-        <v>42.89522117905443</v>
-      </c>
       <c r="S81">
-        <v>190347.543982054</v>
+        <v>1840</v>
+      </c>
+      <c r="T81">
+        <v>2300</v>
       </c>
     </row>
     <row r="82">
@@ -5860,25 +6105,28 @@
         <v>40</v>
       </c>
       <c r="M82">
+        <v>1</v>
+      </c>
+      <c r="N82">
         <v>3550</v>
       </c>
-      <c r="N82">
+      <c r="O82">
         <v>32</v>
       </c>
-      <c r="O82">
+      <c r="P82">
         <v>1.25</v>
       </c>
-      <c r="P82">
+      <c r="Q82">
         <v>2</v>
       </c>
-      <c r="Q82">
+      <c r="R82">
         <v>1400</v>
       </c>
-      <c r="R82">
-        <v>26.45751311064591</v>
-      </c>
       <c r="S82">
-        <v>117405.2144284912</v>
+        <v>700</v>
+      </c>
+      <c r="T82">
+        <v>875</v>
       </c>
     </row>
     <row r="83">
@@ -5927,25 +6175,28 @@
         <v>40</v>
       </c>
       <c r="M83">
+        <v>1</v>
+      </c>
+      <c r="N83">
         <v>3550</v>
       </c>
-      <c r="N83">
+      <c r="O83">
         <v>32</v>
       </c>
-      <c r="O83">
+      <c r="P83">
         <v>1.25</v>
       </c>
-      <c r="P83">
+      <c r="Q83">
         <v>3</v>
       </c>
-      <c r="Q83">
+      <c r="R83">
         <v>1300</v>
       </c>
-      <c r="R83">
-        <v>20.81665999466133</v>
-      </c>
       <c r="S83">
-        <v>92373.92872630963</v>
+        <v>433.3333333333333</v>
+      </c>
+      <c r="T83">
+        <v>541.6666666666666</v>
       </c>
     </row>
     <row r="84">
@@ -5994,25 +6245,28 @@
         <v>40</v>
       </c>
       <c r="M84">
+        <v>1</v>
+      </c>
+      <c r="N84">
         <v>3550</v>
       </c>
-      <c r="N84">
+      <c r="O84">
         <v>32</v>
       </c>
-      <c r="O84">
+      <c r="P84">
         <v>1.25</v>
       </c>
-      <c r="P84">
+      <c r="Q84">
         <v>5</v>
       </c>
-      <c r="Q84">
+      <c r="R84">
         <v>9200</v>
       </c>
-      <c r="R84">
-        <v>42.89522117905443</v>
-      </c>
       <c r="S84">
-        <v>190347.543982054</v>
+        <v>1840</v>
+      </c>
+      <c r="T84">
+        <v>2300</v>
       </c>
     </row>
     <row r="85">
@@ -6061,25 +6315,28 @@
         <v>40</v>
       </c>
       <c r="M85">
+        <v>1</v>
+      </c>
+      <c r="N85">
         <v>3550</v>
       </c>
-      <c r="N85">
+      <c r="O85">
         <v>32</v>
       </c>
-      <c r="O85">
+      <c r="P85">
         <v>1.25</v>
       </c>
-      <c r="P85">
+      <c r="Q85">
         <v>3</v>
       </c>
-      <c r="Q85">
+      <c r="R85">
         <v>1300</v>
       </c>
-      <c r="R85">
-        <v>20.81665999466133</v>
-      </c>
       <c r="S85">
-        <v>92373.92872630963</v>
+        <v>433.3333333333333</v>
+      </c>
+      <c r="T85">
+        <v>541.6666666666666</v>
       </c>
     </row>
     <row r="86">
@@ -6128,25 +6385,28 @@
         <v>40</v>
       </c>
       <c r="M86">
+        <v>1</v>
+      </c>
+      <c r="N86">
         <v>3550</v>
       </c>
-      <c r="N86">
+      <c r="O86">
         <v>32</v>
       </c>
-      <c r="O86">
+      <c r="P86">
         <v>1.25</v>
       </c>
-      <c r="P86">
+      <c r="Q86">
         <v>2</v>
       </c>
-      <c r="Q86">
+      <c r="R86">
         <v>1800</v>
       </c>
-      <c r="R86">
-        <v>30</v>
-      </c>
       <c r="S86">
-        <v>133125</v>
+        <v>900</v>
+      </c>
+      <c r="T86">
+        <v>1125</v>
       </c>
     </row>
     <row r="87">
@@ -6195,25 +6455,28 @@
         <v>40</v>
       </c>
       <c r="M87">
+        <v>1</v>
+      </c>
+      <c r="N87">
         <v>3550</v>
       </c>
-      <c r="N87">
+      <c r="O87">
         <v>32</v>
       </c>
-      <c r="O87">
+      <c r="P87">
         <v>1.25</v>
       </c>
-      <c r="P87">
+      <c r="Q87">
         <v>5</v>
       </c>
-      <c r="Q87">
+      <c r="R87">
         <v>9200</v>
       </c>
-      <c r="R87">
-        <v>42.89522117905443</v>
-      </c>
       <c r="S87">
-        <v>190347.543982054</v>
+        <v>1840</v>
+      </c>
+      <c r="T87">
+        <v>2300</v>
       </c>
     </row>
     <row r="88">
@@ -6262,25 +6525,28 @@
         <v>40</v>
       </c>
       <c r="M88">
+        <v>1</v>
+      </c>
+      <c r="N88">
         <v>3550</v>
       </c>
-      <c r="N88">
+      <c r="O88">
         <v>32</v>
       </c>
-      <c r="O88">
+      <c r="P88">
         <v>1.25</v>
       </c>
-      <c r="P88">
+      <c r="Q88">
         <v>2</v>
       </c>
-      <c r="Q88">
+      <c r="R88">
         <v>10500</v>
       </c>
-      <c r="R88">
-        <v>72.4568837309472</v>
-      </c>
       <c r="S88">
-        <v>321527.4215560782</v>
+        <v>5250</v>
+      </c>
+      <c r="T88">
+        <v>6562.5</v>
       </c>
     </row>
     <row r="89">
@@ -6329,25 +6595,28 @@
         <v>40</v>
       </c>
       <c r="M89">
+        <v>1</v>
+      </c>
+      <c r="N89">
         <v>3550</v>
       </c>
-      <c r="N89">
+      <c r="O89">
         <v>32</v>
       </c>
-      <c r="O89">
+      <c r="P89">
         <v>1.25</v>
       </c>
-      <c r="P89">
+      <c r="Q89">
         <v>2</v>
       </c>
-      <c r="Q89">
+      <c r="R89">
         <v>900</v>
       </c>
-      <c r="R89">
-        <v>21.21320343559643</v>
-      </c>
       <c r="S89">
-        <v>94133.59024545914</v>
+        <v>450</v>
+      </c>
+      <c r="T89">
+        <v>562.5</v>
       </c>
     </row>
     <row r="90">
@@ -6396,25 +6665,28 @@
         <v>40</v>
       </c>
       <c r="M90">
+        <v>1</v>
+      </c>
+      <c r="N90">
         <v>3550</v>
       </c>
-      <c r="N90">
+      <c r="O90">
         <v>32</v>
       </c>
-      <c r="O90">
+      <c r="P90">
         <v>1.25</v>
       </c>
-      <c r="P90">
+      <c r="Q90">
         <v>2</v>
       </c>
-      <c r="Q90">
+      <c r="R90">
         <v>10700</v>
       </c>
-      <c r="R90">
-        <v>73.14369419163897</v>
-      </c>
       <c r="S90">
-        <v>324575.1429753979</v>
+        <v>5350</v>
+      </c>
+      <c r="T90">
+        <v>6687.5</v>
       </c>
     </row>
     <row r="91">
@@ -6463,25 +6735,28 @@
         <v>40</v>
       </c>
       <c r="M91">
+        <v>1</v>
+      </c>
+      <c r="N91">
         <v>3550</v>
       </c>
-      <c r="N91">
+      <c r="O91">
         <v>32</v>
       </c>
-      <c r="O91">
+      <c r="P91">
         <v>1.25</v>
       </c>
-      <c r="P91">
+      <c r="Q91">
         <v>2</v>
       </c>
-      <c r="Q91">
+      <c r="R91">
         <v>900</v>
       </c>
-      <c r="R91">
-        <v>21.21320343559643</v>
-      </c>
       <c r="S91">
-        <v>94133.59024545914</v>
+        <v>450</v>
+      </c>
+      <c r="T91">
+        <v>562.5</v>
       </c>
     </row>
     <row r="92">
@@ -6530,25 +6805,28 @@
         <v>40</v>
       </c>
       <c r="M92">
+        <v>1</v>
+      </c>
+      <c r="N92">
         <v>3550</v>
       </c>
-      <c r="N92">
+      <c r="O92">
         <v>32</v>
       </c>
-      <c r="O92">
+      <c r="P92">
         <v>1.25</v>
       </c>
-      <c r="P92">
+      <c r="Q92">
         <v>2</v>
       </c>
-      <c r="Q92">
+      <c r="R92">
         <v>10500</v>
       </c>
-      <c r="R92">
-        <v>72.4568837309472</v>
-      </c>
       <c r="S92">
-        <v>321527.4215560782</v>
+        <v>5250</v>
+      </c>
+      <c r="T92">
+        <v>6562.5</v>
       </c>
     </row>
     <row r="93">
@@ -6597,25 +6875,28 @@
         <v>40</v>
       </c>
       <c r="M93">
+        <v>1</v>
+      </c>
+      <c r="N93">
         <v>3550</v>
       </c>
-      <c r="N93">
+      <c r="O93">
         <v>32</v>
       </c>
-      <c r="O93">
+      <c r="P93">
         <v>1.25</v>
       </c>
-      <c r="P93">
+      <c r="Q93">
         <v>4</v>
       </c>
-      <c r="Q93">
+      <c r="R93">
         <v>16800</v>
       </c>
-      <c r="R93">
-        <v>64.8074069840786</v>
-      </c>
       <c r="S93">
-        <v>287582.8684918488</v>
+        <v>4200</v>
+      </c>
+      <c r="T93">
+        <v>5250</v>
       </c>
     </row>
     <row r="94">
@@ -6664,25 +6945,28 @@
         <v>40</v>
       </c>
       <c r="M94">
+        <v>1</v>
+      </c>
+      <c r="N94">
         <v>3550</v>
       </c>
-      <c r="N94">
+      <c r="O94">
         <v>32</v>
       </c>
-      <c r="O94">
+      <c r="P94">
         <v>1.25</v>
       </c>
-      <c r="P94">
+      <c r="Q94">
         <v>4</v>
       </c>
-      <c r="Q94">
+      <c r="R94">
         <v>16800</v>
       </c>
-      <c r="R94">
-        <v>64.8074069840786</v>
-      </c>
       <c r="S94">
-        <v>287582.8684918488</v>
+        <v>4200</v>
+      </c>
+      <c r="T94">
+        <v>5250</v>
       </c>
     </row>
     <row r="95">
@@ -6731,25 +7015,28 @@
         <v>40</v>
       </c>
       <c r="M95">
+        <v>1</v>
+      </c>
+      <c r="N95">
         <v>3550</v>
       </c>
-      <c r="N95">
+      <c r="O95">
         <v>32</v>
       </c>
-      <c r="O95">
+      <c r="P95">
         <v>1.25</v>
       </c>
-      <c r="P95">
-        <v>1</v>
-      </c>
       <c r="Q95">
+        <v>1</v>
+      </c>
+      <c r="R95">
         <v>8900</v>
       </c>
-      <c r="R95">
-        <v>94.33981132056604</v>
-      </c>
       <c r="S95">
-        <v>418632.9127350118</v>
+        <v>8900</v>
+      </c>
+      <c r="T95">
+        <v>11125</v>
       </c>
     </row>
     <row r="96">
@@ -6798,25 +7085,28 @@
         <v>40</v>
       </c>
       <c r="M96">
+        <v>1</v>
+      </c>
+      <c r="N96">
         <v>27645</v>
       </c>
-      <c r="N96">
+      <c r="O96">
         <v>28</v>
       </c>
-      <c r="O96">
+      <c r="P96">
         <v>1.428571428571429</v>
       </c>
-      <c r="P96">
+      <c r="Q96">
         <v>4</v>
       </c>
-      <c r="Q96">
+      <c r="R96">
         <v>107300</v>
       </c>
-      <c r="R96">
-        <v>163.783393541592</v>
-      </c>
       <c r="S96">
-        <v>6468274.163510445</v>
+        <v>26825</v>
+      </c>
+      <c r="T96">
+        <v>38321.42857142857</v>
       </c>
     </row>
     <row r="97">
@@ -6865,25 +7155,28 @@
         <v>40</v>
       </c>
       <c r="M97">
+        <v>1</v>
+      </c>
+      <c r="N97">
         <v>27645</v>
       </c>
-      <c r="N97">
+      <c r="O97">
         <v>28</v>
       </c>
-      <c r="O97">
+      <c r="P97">
         <v>1.428571428571429</v>
       </c>
-      <c r="P97">
-        <v>1</v>
-      </c>
       <c r="Q97">
+        <v>1</v>
+      </c>
+      <c r="R97">
         <v>12500</v>
       </c>
-      <c r="R97">
-        <v>111.8033988749895</v>
-      </c>
       <c r="S97">
-        <v>4415435.659855835</v>
+        <v>12500</v>
+      </c>
+      <c r="T97">
+        <v>17857.14285714286</v>
       </c>
     </row>
     <row r="98">
@@ -6932,25 +7225,28 @@
         <v>40</v>
       </c>
       <c r="M98">
+        <v>1</v>
+      </c>
+      <c r="N98">
         <v>27645</v>
       </c>
-      <c r="N98">
+      <c r="O98">
         <v>28</v>
       </c>
-      <c r="O98">
+      <c r="P98">
         <v>1.428571428571429</v>
       </c>
-      <c r="P98">
+      <c r="Q98">
         <v>2</v>
       </c>
-      <c r="Q98">
+      <c r="R98">
         <v>79800</v>
       </c>
-      <c r="R98">
-        <v>199.7498435543818</v>
-      </c>
       <c r="S98">
-        <v>7888692.035801264</v>
+        <v>39900</v>
+      </c>
+      <c r="T98">
+        <v>57000</v>
       </c>
     </row>
     <row r="99">
@@ -6999,25 +7295,28 @@
         <v>40</v>
       </c>
       <c r="M99">
+        <v>1</v>
+      </c>
+      <c r="N99">
         <v>27645</v>
       </c>
-      <c r="N99">
+      <c r="O99">
         <v>28</v>
       </c>
-      <c r="O99">
+      <c r="P99">
         <v>1.428571428571429</v>
       </c>
-      <c r="P99">
+      <c r="Q99">
         <v>3</v>
       </c>
-      <c r="Q99">
+      <c r="R99">
         <v>49900</v>
       </c>
-      <c r="R99">
-        <v>128.970280814354</v>
-      </c>
       <c r="S99">
-        <v>5093404.875875453</v>
+        <v>16633.33333333333</v>
+      </c>
+      <c r="T99">
+        <v>23761.90476190476</v>
       </c>
     </row>
     <row r="100">
@@ -7066,25 +7365,28 @@
         <v>40</v>
       </c>
       <c r="M100">
+        <v>1</v>
+      </c>
+      <c r="N100">
         <v>27645</v>
       </c>
-      <c r="N100">
+      <c r="O100">
         <v>28</v>
       </c>
-      <c r="O100">
+      <c r="P100">
         <v>1.428571428571429</v>
       </c>
-      <c r="P100">
+      <c r="Q100">
         <v>3</v>
       </c>
-      <c r="Q100">
+      <c r="R100">
         <v>49900</v>
       </c>
-      <c r="R100">
-        <v>128.970280814354</v>
-      </c>
       <c r="S100">
-        <v>5093404.875875453</v>
+        <v>16633.33333333333</v>
+      </c>
+      <c r="T100">
+        <v>23761.90476190476</v>
       </c>
     </row>
     <row r="101">
@@ -7133,25 +7435,28 @@
         <v>40</v>
       </c>
       <c r="M101">
+        <v>1</v>
+      </c>
+      <c r="N101">
         <v>27645</v>
       </c>
-      <c r="N101">
+      <c r="O101">
         <v>28</v>
       </c>
-      <c r="O101">
+      <c r="P101">
         <v>1.428571428571429</v>
       </c>
-      <c r="P101">
+      <c r="Q101">
         <v>4</v>
       </c>
-      <c r="Q101">
+      <c r="R101">
         <v>65300</v>
       </c>
-      <c r="R101">
-        <v>127.7693233918064</v>
-      </c>
       <c r="S101">
-        <v>5045975.635952125</v>
+        <v>16325</v>
+      </c>
+      <c r="T101">
+        <v>23321.42857142857</v>
       </c>
     </row>
     <row r="102">
@@ -7200,25 +7505,28 @@
         <v>40</v>
       </c>
       <c r="M102">
+        <v>1</v>
+      </c>
+      <c r="N102">
         <v>27645</v>
       </c>
-      <c r="N102">
+      <c r="O102">
         <v>28</v>
       </c>
-      <c r="O102">
+      <c r="P102">
         <v>1.428571428571429</v>
       </c>
-      <c r="P102">
-        <v>1</v>
-      </c>
       <c r="Q102">
+        <v>1</v>
+      </c>
+      <c r="R102">
         <v>54700</v>
       </c>
-      <c r="R102">
-        <v>233.88031127053</v>
-      </c>
       <c r="S102">
-        <v>9236601.721534003</v>
+        <v>54700</v>
+      </c>
+      <c r="T102">
+        <v>78142.85714285714</v>
       </c>
     </row>
     <row r="103">
@@ -7267,25 +7575,28 @@
         <v>40</v>
       </c>
       <c r="M103">
+        <v>1</v>
+      </c>
+      <c r="N103">
         <v>27645</v>
       </c>
-      <c r="N103">
+      <c r="O103">
         <v>28</v>
       </c>
-      <c r="O103">
+      <c r="P103">
         <v>1.428571428571429</v>
       </c>
-      <c r="P103">
-        <v>1</v>
-      </c>
       <c r="Q103">
+        <v>1</v>
+      </c>
+      <c r="R103">
         <v>85600</v>
       </c>
-      <c r="R103">
-        <v>292.5747767665559</v>
-      </c>
       <c r="S103">
-        <v>11554613.86244491</v>
+        <v>85600</v>
+      </c>
+      <c r="T103">
+        <v>122285.7142857143</v>
       </c>
     </row>
     <row r="104">
@@ -7334,25 +7645,28 @@
         <v>40</v>
       </c>
       <c r="M104">
+        <v>1</v>
+      </c>
+      <c r="N104">
         <v>27645</v>
       </c>
-      <c r="N104">
+      <c r="O104">
         <v>28</v>
       </c>
-      <c r="O104">
+      <c r="P104">
         <v>1.428571428571429</v>
       </c>
-      <c r="P104">
+      <c r="Q104">
         <v>4</v>
       </c>
-      <c r="Q104">
+      <c r="R104">
         <v>107300</v>
       </c>
-      <c r="R104">
-        <v>163.783393541592</v>
-      </c>
       <c r="S104">
-        <v>6468274.163510445</v>
+        <v>26825</v>
+      </c>
+      <c r="T104">
+        <v>38321.42857142857</v>
       </c>
     </row>
     <row r="105">
@@ -7401,25 +7715,28 @@
         <v>40</v>
       </c>
       <c r="M105">
+        <v>1</v>
+      </c>
+      <c r="N105">
         <v>27645</v>
       </c>
-      <c r="N105">
+      <c r="O105">
         <v>28</v>
       </c>
-      <c r="O105">
+      <c r="P105">
         <v>1.428571428571429</v>
       </c>
-      <c r="P105">
+      <c r="Q105">
         <v>4</v>
       </c>
-      <c r="Q105">
+      <c r="R105">
         <v>65300</v>
       </c>
-      <c r="R105">
-        <v>127.7693233918064</v>
-      </c>
       <c r="S105">
-        <v>5045975.635952125</v>
+        <v>16325</v>
+      </c>
+      <c r="T105">
+        <v>23321.42857142857</v>
       </c>
     </row>
     <row r="106">
@@ -7468,25 +7785,28 @@
         <v>40</v>
       </c>
       <c r="M106">
+        <v>1</v>
+      </c>
+      <c r="N106">
         <v>27645</v>
       </c>
-      <c r="N106">
+      <c r="O106">
         <v>28</v>
       </c>
-      <c r="O106">
+      <c r="P106">
         <v>1.428571428571429</v>
       </c>
-      <c r="P106">
+      <c r="Q106">
         <v>5</v>
       </c>
-      <c r="Q106">
+      <c r="R106">
         <v>43000</v>
       </c>
-      <c r="R106">
-        <v>92.73618495495704</v>
-      </c>
       <c r="S106">
-        <v>3662416.904399696</v>
+        <v>8600</v>
+      </c>
+      <c r="T106">
+        <v>12285.71428571429</v>
       </c>
     </row>
     <row r="107">
@@ -7535,25 +7855,28 @@
         <v>40</v>
       </c>
       <c r="M107">
+        <v>1</v>
+      </c>
+      <c r="N107">
         <v>27645</v>
       </c>
-      <c r="N107">
+      <c r="O107">
         <v>28</v>
       </c>
-      <c r="O107">
+      <c r="P107">
         <v>1.428571428571429</v>
       </c>
-      <c r="P107">
+      <c r="Q107">
         <v>4</v>
       </c>
-      <c r="Q107">
+      <c r="R107">
         <v>65300</v>
       </c>
-      <c r="R107">
-        <v>127.7693233918064</v>
-      </c>
       <c r="S107">
-        <v>5045975.635952125</v>
+        <v>16325</v>
+      </c>
+      <c r="T107">
+        <v>23321.42857142857</v>
       </c>
     </row>
     <row r="108">
@@ -7602,25 +7925,28 @@
         <v>40</v>
       </c>
       <c r="M108">
+        <v>1</v>
+      </c>
+      <c r="N108">
         <v>27645</v>
       </c>
-      <c r="N108">
+      <c r="O108">
         <v>28</v>
       </c>
-      <c r="O108">
+      <c r="P108">
         <v>1.428571428571429</v>
       </c>
-      <c r="P108">
+      <c r="Q108">
         <v>3</v>
       </c>
-      <c r="Q108">
+      <c r="R108">
         <v>49900</v>
       </c>
-      <c r="R108">
-        <v>128.970280814354</v>
-      </c>
       <c r="S108">
-        <v>5093404.875875453</v>
+        <v>16633.33333333333</v>
+      </c>
+      <c r="T108">
+        <v>23761.90476190476</v>
       </c>
     </row>
     <row r="109">
@@ -7669,25 +7995,28 @@
         <v>40</v>
       </c>
       <c r="M109">
+        <v>1</v>
+      </c>
+      <c r="N109">
         <v>27645</v>
       </c>
-      <c r="N109">
+      <c r="O109">
         <v>28</v>
       </c>
-      <c r="O109">
+      <c r="P109">
         <v>1.428571428571429</v>
       </c>
-      <c r="P109">
+      <c r="Q109">
         <v>2</v>
       </c>
-      <c r="Q109">
+      <c r="R109">
         <v>65600</v>
       </c>
-      <c r="R109">
-        <v>181.1077027627483</v>
-      </c>
       <c r="S109">
-        <v>7152460.632680255</v>
+        <v>32800</v>
+      </c>
+      <c r="T109">
+        <v>46857.14285714286</v>
       </c>
     </row>
     <row r="110">
@@ -7736,25 +8065,28 @@
         <v>40</v>
       </c>
       <c r="M110">
+        <v>1</v>
+      </c>
+      <c r="N110">
         <v>27645</v>
       </c>
-      <c r="N110">
+      <c r="O110">
         <v>28</v>
       </c>
-      <c r="O110">
+      <c r="P110">
         <v>1.428571428571429</v>
       </c>
-      <c r="P110">
-        <v>1</v>
-      </c>
       <c r="Q110">
+        <v>1</v>
+      </c>
+      <c r="R110">
         <v>52200</v>
       </c>
-      <c r="R110">
-        <v>228.4731931759173</v>
-      </c>
       <c r="S110">
-        <v>9023059.179068904</v>
+        <v>52200</v>
+      </c>
+      <c r="T110">
+        <v>74571.42857142858</v>
       </c>
     </row>
     <row r="111">
@@ -7803,25 +8135,28 @@
         <v>40</v>
       </c>
       <c r="M111">
+        <v>1</v>
+      </c>
+      <c r="N111">
         <v>27645</v>
       </c>
-      <c r="N111">
+      <c r="O111">
         <v>28</v>
       </c>
-      <c r="O111">
+      <c r="P111">
         <v>1.428571428571429</v>
       </c>
-      <c r="P111">
+      <c r="Q111">
         <v>4</v>
       </c>
-      <c r="Q111">
+      <c r="R111">
         <v>65300</v>
       </c>
-      <c r="R111">
-        <v>127.7693233918064</v>
-      </c>
       <c r="S111">
-        <v>5045975.635952125</v>
+        <v>16325</v>
+      </c>
+      <c r="T111">
+        <v>23321.42857142857</v>
       </c>
     </row>
     <row r="112">
@@ -7870,25 +8205,28 @@
         <v>40</v>
       </c>
       <c r="M112">
+        <v>1</v>
+      </c>
+      <c r="N112">
         <v>27645</v>
       </c>
-      <c r="N112">
+      <c r="O112">
         <v>28</v>
       </c>
-      <c r="O112">
+      <c r="P112">
         <v>1.428571428571429</v>
       </c>
-      <c r="P112">
+      <c r="Q112">
         <v>2</v>
       </c>
-      <c r="Q112">
+      <c r="R112">
         <v>79800</v>
       </c>
-      <c r="R112">
-        <v>199.7498435543818</v>
-      </c>
       <c r="S112">
-        <v>7888692.035801264</v>
+        <v>39900</v>
+      </c>
+      <c r="T112">
+        <v>57000</v>
       </c>
     </row>
     <row r="113">
@@ -7937,25 +8275,28 @@
         <v>40</v>
       </c>
       <c r="M113">
+        <v>1</v>
+      </c>
+      <c r="N113">
         <v>27645</v>
       </c>
-      <c r="N113">
+      <c r="O113">
         <v>28</v>
       </c>
-      <c r="O113">
+      <c r="P113">
         <v>1.428571428571429</v>
       </c>
-      <c r="P113">
+      <c r="Q113">
         <v>5</v>
       </c>
-      <c r="Q113">
+      <c r="R113">
         <v>43000</v>
       </c>
-      <c r="R113">
-        <v>92.73618495495704</v>
-      </c>
       <c r="S113">
-        <v>3662416.904399696</v>
+        <v>8600</v>
+      </c>
+      <c r="T113">
+        <v>12285.71428571429</v>
       </c>
     </row>
     <row r="114">
@@ -8004,25 +8345,28 @@
         <v>40</v>
       </c>
       <c r="M114">
+        <v>1</v>
+      </c>
+      <c r="N114">
         <v>27645</v>
       </c>
-      <c r="N114">
+      <c r="O114">
         <v>28</v>
       </c>
-      <c r="O114">
+      <c r="P114">
         <v>1.428571428571429</v>
       </c>
-      <c r="P114">
+      <c r="Q114">
         <v>5</v>
       </c>
-      <c r="Q114">
+      <c r="R114">
         <v>43000</v>
       </c>
-      <c r="R114">
-        <v>92.73618495495704</v>
-      </c>
       <c r="S114">
-        <v>3662416.904399696</v>
+        <v>8600</v>
+      </c>
+      <c r="T114">
+        <v>12285.71428571429</v>
       </c>
     </row>
     <row r="115">
@@ -8071,25 +8415,28 @@
         <v>40</v>
       </c>
       <c r="M115">
+        <v>1</v>
+      </c>
+      <c r="N115">
         <v>27645</v>
       </c>
-      <c r="N115">
+      <c r="O115">
         <v>28</v>
       </c>
-      <c r="O115">
+      <c r="P115">
         <v>1.428571428571429</v>
       </c>
-      <c r="P115">
+      <c r="Q115">
         <v>4</v>
       </c>
-      <c r="Q115">
+      <c r="R115">
         <v>107300</v>
       </c>
-      <c r="R115">
-        <v>163.783393541592</v>
-      </c>
       <c r="S115">
-        <v>6468274.163510445</v>
+        <v>26825</v>
+      </c>
+      <c r="T115">
+        <v>38321.42857142857</v>
       </c>
     </row>
     <row r="116">
@@ -8138,25 +8485,28 @@
         <v>40</v>
       </c>
       <c r="M116">
+        <v>1</v>
+      </c>
+      <c r="N116">
         <v>27645</v>
       </c>
-      <c r="N116">
+      <c r="O116">
         <v>28</v>
       </c>
-      <c r="O116">
+      <c r="P116">
         <v>1.428571428571429</v>
       </c>
-      <c r="P116">
+      <c r="Q116">
         <v>2</v>
       </c>
-      <c r="Q116">
+      <c r="R116">
         <v>114600</v>
       </c>
-      <c r="R116">
-        <v>239.3741840717165</v>
-      </c>
       <c r="S116">
-        <v>9453570.455232289</v>
+        <v>57300</v>
+      </c>
+      <c r="T116">
+        <v>81857.14285714286</v>
       </c>
     </row>
     <row r="117">
@@ -8205,25 +8555,28 @@
         <v>40</v>
       </c>
       <c r="M117">
+        <v>1</v>
+      </c>
+      <c r="N117">
         <v>27645</v>
       </c>
-      <c r="N117">
+      <c r="O117">
         <v>28</v>
       </c>
-      <c r="O117">
+      <c r="P117">
         <v>1.428571428571429</v>
       </c>
-      <c r="P117">
-        <v>1</v>
-      </c>
       <c r="Q117">
+        <v>1</v>
+      </c>
+      <c r="R117">
         <v>15400</v>
       </c>
-      <c r="R117">
-        <v>124.0967364599086</v>
-      </c>
       <c r="S117">
-        <v>4900934.684905961</v>
+        <v>15400</v>
+      </c>
+      <c r="T117">
+        <v>22000</v>
       </c>
     </row>
     <row r="118">
@@ -8272,25 +8625,28 @@
         <v>40</v>
       </c>
       <c r="M118">
+        <v>1</v>
+      </c>
+      <c r="N118">
         <v>27645</v>
       </c>
-      <c r="N118">
+      <c r="O118">
         <v>28</v>
       </c>
-      <c r="O118">
+      <c r="P118">
         <v>1.428571428571429</v>
       </c>
-      <c r="P118">
-        <v>1</v>
-      </c>
       <c r="Q118">
+        <v>1</v>
+      </c>
+      <c r="R118">
         <v>19500</v>
       </c>
-      <c r="R118">
-        <v>139.6424004376894</v>
-      </c>
       <c r="S118">
-        <v>5514877.37157132</v>
+        <v>19500</v>
+      </c>
+      <c r="T118">
+        <v>27857.14285714286</v>
       </c>
     </row>
     <row r="119">
@@ -8339,25 +8695,28 @@
         <v>40</v>
       </c>
       <c r="M119">
+        <v>1</v>
+      </c>
+      <c r="N119">
         <v>27645</v>
       </c>
-      <c r="N119">
+      <c r="O119">
         <v>28</v>
       </c>
-      <c r="O119">
+      <c r="P119">
         <v>1.428571428571429</v>
       </c>
-      <c r="P119">
+      <c r="Q119">
         <v>4</v>
       </c>
-      <c r="Q119">
+      <c r="R119">
         <v>107300</v>
       </c>
-      <c r="R119">
-        <v>163.783393541592</v>
-      </c>
       <c r="S119">
-        <v>6468274.163510445</v>
+        <v>26825</v>
+      </c>
+      <c r="T119">
+        <v>38321.42857142857</v>
       </c>
     </row>
     <row r="120">
@@ -8406,25 +8765,28 @@
         <v>40</v>
       </c>
       <c r="M120">
+        <v>1</v>
+      </c>
+      <c r="N120">
         <v>27645</v>
       </c>
-      <c r="N120">
+      <c r="O120">
         <v>28</v>
       </c>
-      <c r="O120">
+      <c r="P120">
         <v>1.428571428571429</v>
       </c>
-      <c r="P120">
+      <c r="Q120">
         <v>5</v>
       </c>
-      <c r="Q120">
+      <c r="R120">
         <v>43000</v>
       </c>
-      <c r="R120">
-        <v>92.73618495495704</v>
-      </c>
       <c r="S120">
-        <v>3662416.904399696</v>
+        <v>8600</v>
+      </c>
+      <c r="T120">
+        <v>12285.71428571429</v>
       </c>
     </row>
     <row r="121">
@@ -8473,25 +8835,28 @@
         <v>40</v>
       </c>
       <c r="M121">
+        <v>1</v>
+      </c>
+      <c r="N121">
         <v>27645</v>
       </c>
-      <c r="N121">
+      <c r="O121">
         <v>28</v>
       </c>
-      <c r="O121">
+      <c r="P121">
         <v>1.428571428571429</v>
       </c>
-      <c r="P121">
+      <c r="Q121">
         <v>5</v>
       </c>
-      <c r="Q121">
+      <c r="R121">
         <v>43000</v>
       </c>
-      <c r="R121">
-        <v>92.73618495495704</v>
-      </c>
       <c r="S121">
-        <v>3662416.904399696</v>
+        <v>8600</v>
+      </c>
+      <c r="T121">
+        <v>12285.71428571429</v>
       </c>
     </row>
     <row r="122">
@@ -8540,25 +8905,28 @@
         <v>40</v>
       </c>
       <c r="M122">
+        <v>1</v>
+      </c>
+      <c r="N122">
         <v>27645</v>
       </c>
-      <c r="N122">
+      <c r="O122">
         <v>28</v>
       </c>
-      <c r="O122">
+      <c r="P122">
         <v>1.428571428571429</v>
       </c>
-      <c r="P122">
+      <c r="Q122">
         <v>2</v>
       </c>
-      <c r="Q122">
+      <c r="R122">
         <v>114600</v>
       </c>
-      <c r="R122">
-        <v>239.3741840717165</v>
-      </c>
       <c r="S122">
-        <v>9453570.455232289</v>
+        <v>57300</v>
+      </c>
+      <c r="T122">
+        <v>81857.14285714286</v>
       </c>
     </row>
     <row r="123">
@@ -8607,25 +8975,28 @@
         <v>40</v>
       </c>
       <c r="M123">
+        <v>1</v>
+      </c>
+      <c r="N123">
         <v>27645</v>
       </c>
-      <c r="N123">
+      <c r="O123">
         <v>28</v>
       </c>
-      <c r="O123">
+      <c r="P123">
         <v>1.428571428571429</v>
       </c>
-      <c r="P123">
+      <c r="Q123">
         <v>2</v>
       </c>
-      <c r="Q123">
+      <c r="R123">
         <v>65600</v>
       </c>
-      <c r="R123">
-        <v>181.1077027627483</v>
-      </c>
       <c r="S123">
-        <v>7152460.632680255</v>
+        <v>32800</v>
+      </c>
+      <c r="T123">
+        <v>46857.14285714286</v>
       </c>
     </row>
     <row r="124">
@@ -8674,25 +9045,28 @@
         <v>40</v>
       </c>
       <c r="M124">
+        <v>1</v>
+      </c>
+      <c r="N124">
         <v>1340</v>
       </c>
-      <c r="N124">
+      <c r="O124">
         <v>36</v>
       </c>
-      <c r="O124">
+      <c r="P124">
         <v>1.111111111111111</v>
       </c>
-      <c r="P124">
+      <c r="Q124">
         <v>4</v>
       </c>
-      <c r="Q124">
+      <c r="R124">
         <v>3100</v>
       </c>
-      <c r="R124">
-        <v>27.83882181415011</v>
-      </c>
       <c r="S124">
-        <v>41448.91247884572</v>
+        <v>775</v>
+      </c>
+      <c r="T124">
+        <v>861.1111111111112</v>
       </c>
     </row>
     <row r="125">
@@ -8741,25 +9115,28 @@
         <v>40</v>
       </c>
       <c r="M125">
+        <v>1</v>
+      </c>
+      <c r="N125">
         <v>1340</v>
       </c>
-      <c r="N125">
+      <c r="O125">
         <v>36</v>
       </c>
-      <c r="O125">
+      <c r="P125">
         <v>1.111111111111111</v>
       </c>
-      <c r="P125">
+      <c r="Q125">
         <v>3</v>
       </c>
-      <c r="Q125">
+      <c r="R125">
         <v>3600</v>
       </c>
-      <c r="R125">
-        <v>34.64101615137755</v>
-      </c>
       <c r="S125">
-        <v>51576.62404760657</v>
+        <v>1200</v>
+      </c>
+      <c r="T125">
+        <v>1333.333333333333</v>
       </c>
     </row>
     <row r="126">
@@ -8808,25 +9185,28 @@
         <v>40</v>
       </c>
       <c r="M126">
+        <v>1</v>
+      </c>
+      <c r="N126">
         <v>1340</v>
       </c>
-      <c r="N126">
+      <c r="O126">
         <v>36</v>
       </c>
-      <c r="O126">
+      <c r="P126">
         <v>1.111111111111111</v>
       </c>
-      <c r="P126">
+      <c r="Q126">
         <v>4</v>
       </c>
-      <c r="Q126">
+      <c r="R126">
         <v>600</v>
       </c>
-      <c r="R126">
-        <v>12.24744871391589</v>
-      </c>
       <c r="S126">
-        <v>18235.09030738588</v>
+        <v>150</v>
+      </c>
+      <c r="T126">
+        <v>166.6666666666667</v>
       </c>
     </row>
     <row r="127">
@@ -8875,25 +9255,28 @@
         <v>40</v>
       </c>
       <c r="M127">
+        <v>1</v>
+      </c>
+      <c r="N127">
         <v>1340</v>
       </c>
-      <c r="N127">
+      <c r="O127">
         <v>36</v>
       </c>
-      <c r="O127">
+      <c r="P127">
         <v>1.111111111111111</v>
       </c>
-      <c r="P127">
+      <c r="Q127">
         <v>3</v>
       </c>
-      <c r="Q127">
+      <c r="R127">
         <v>3600</v>
       </c>
-      <c r="R127">
-        <v>34.64101615137755</v>
-      </c>
       <c r="S127">
-        <v>51576.62404760657</v>
+        <v>1200</v>
+      </c>
+      <c r="T127">
+        <v>1333.333333333333</v>
       </c>
     </row>
     <row r="128">
@@ -8942,25 +9325,28 @@
         <v>40</v>
       </c>
       <c r="M128">
+        <v>1</v>
+      </c>
+      <c r="N128">
         <v>1340</v>
       </c>
-      <c r="N128">
+      <c r="O128">
         <v>36</v>
       </c>
-      <c r="O128">
+      <c r="P128">
         <v>1.111111111111111</v>
       </c>
-      <c r="P128">
+      <c r="Q128">
         <v>2</v>
       </c>
-      <c r="Q128">
+      <c r="R128">
         <v>1300</v>
       </c>
-      <c r="R128">
-        <v>25.49509756796392</v>
-      </c>
       <c r="S128">
-        <v>37959.36749007962</v>
+        <v>650</v>
+      </c>
+      <c r="T128">
+        <v>722.2222222222223</v>
       </c>
     </row>
     <row r="129">
@@ -9009,25 +9395,28 @@
         <v>40</v>
       </c>
       <c r="M129">
+        <v>1</v>
+      </c>
+      <c r="N129">
         <v>1340</v>
       </c>
-      <c r="N129">
+      <c r="O129">
         <v>36</v>
       </c>
-      <c r="O129">
+      <c r="P129">
         <v>1.111111111111111</v>
       </c>
-      <c r="P129">
+      <c r="Q129">
         <v>4</v>
       </c>
-      <c r="Q129">
+      <c r="R129">
         <v>600</v>
       </c>
-      <c r="R129">
-        <v>12.24744871391589</v>
-      </c>
       <c r="S129">
-        <v>18235.09030738588</v>
+        <v>150</v>
+      </c>
+      <c r="T129">
+        <v>166.6666666666667</v>
       </c>
     </row>
     <row r="130">
@@ -9076,25 +9465,28 @@
         <v>40</v>
       </c>
       <c r="M130">
+        <v>1</v>
+      </c>
+      <c r="N130">
         <v>1340</v>
       </c>
-      <c r="N130">
+      <c r="O130">
         <v>36</v>
       </c>
-      <c r="O130">
+      <c r="P130">
         <v>1.111111111111111</v>
       </c>
-      <c r="P130">
+      <c r="Q130">
         <v>3</v>
       </c>
-      <c r="Q130">
+      <c r="R130">
         <v>7500</v>
       </c>
-      <c r="R130">
-        <v>50</v>
-      </c>
       <c r="S130">
-        <v>74444.44444444445</v>
+        <v>2500</v>
+      </c>
+      <c r="T130">
+        <v>2777.777777777778</v>
       </c>
     </row>
     <row r="131">
@@ -9143,25 +9535,28 @@
         <v>40</v>
       </c>
       <c r="M131">
+        <v>1</v>
+      </c>
+      <c r="N131">
         <v>1340</v>
       </c>
-      <c r="N131">
+      <c r="O131">
         <v>36</v>
       </c>
-      <c r="O131">
+      <c r="P131">
         <v>1.111111111111111</v>
       </c>
-      <c r="P131">
+      <c r="Q131">
         <v>4</v>
       </c>
-      <c r="Q131">
+      <c r="R131">
         <v>3100</v>
       </c>
-      <c r="R131">
-        <v>27.83882181415011</v>
-      </c>
       <c r="S131">
-        <v>41448.91247884572</v>
+        <v>775</v>
+      </c>
+      <c r="T131">
+        <v>861.1111111111112</v>
       </c>
     </row>
     <row r="132">
@@ -9210,25 +9605,28 @@
         <v>40</v>
       </c>
       <c r="M132">
+        <v>1</v>
+      </c>
+      <c r="N132">
         <v>1340</v>
       </c>
-      <c r="N132">
+      <c r="O132">
         <v>36</v>
       </c>
-      <c r="O132">
+      <c r="P132">
         <v>1.111111111111111</v>
       </c>
-      <c r="P132">
+      <c r="Q132">
         <v>4</v>
       </c>
-      <c r="Q132">
+      <c r="R132">
         <v>3100</v>
       </c>
-      <c r="R132">
-        <v>27.83882181415011</v>
-      </c>
       <c r="S132">
-        <v>41448.91247884572</v>
+        <v>775</v>
+      </c>
+      <c r="T132">
+        <v>861.1111111111112</v>
       </c>
     </row>
     <row r="133">
@@ -9277,25 +9675,28 @@
         <v>40</v>
       </c>
       <c r="M133">
+        <v>1</v>
+      </c>
+      <c r="N133">
         <v>1340</v>
       </c>
-      <c r="N133">
+      <c r="O133">
         <v>36</v>
       </c>
-      <c r="O133">
+      <c r="P133">
         <v>1.111111111111111</v>
       </c>
-      <c r="P133">
+      <c r="Q133">
         <v>2</v>
       </c>
-      <c r="Q133">
+      <c r="R133">
         <v>1300</v>
       </c>
-      <c r="R133">
-        <v>25.49509756796392</v>
-      </c>
       <c r="S133">
-        <v>37959.36749007962</v>
+        <v>650</v>
+      </c>
+      <c r="T133">
+        <v>722.2222222222223</v>
       </c>
     </row>
     <row r="134">
@@ -9344,25 +9745,28 @@
         <v>40</v>
       </c>
       <c r="M134">
+        <v>1</v>
+      </c>
+      <c r="N134">
         <v>1340</v>
       </c>
-      <c r="N134">
+      <c r="O134">
         <v>36</v>
       </c>
-      <c r="O134">
+      <c r="P134">
         <v>1.111111111111111</v>
       </c>
-      <c r="P134">
+      <c r="Q134">
         <v>5</v>
       </c>
-      <c r="Q134">
+      <c r="R134">
         <v>5700</v>
       </c>
-      <c r="R134">
-        <v>33.76388603226827</v>
-      </c>
       <c r="S134">
-        <v>50270.67475915498</v>
+        <v>1140</v>
+      </c>
+      <c r="T134">
+        <v>1266.666666666667</v>
       </c>
     </row>
     <row r="135">
@@ -9411,25 +9815,28 @@
         <v>40</v>
       </c>
       <c r="M135">
+        <v>1</v>
+      </c>
+      <c r="N135">
         <v>1340</v>
       </c>
-      <c r="N135">
+      <c r="O135">
         <v>36</v>
       </c>
-      <c r="O135">
+      <c r="P135">
         <v>1.111111111111111</v>
       </c>
-      <c r="P135">
+      <c r="Q135">
         <v>5</v>
       </c>
-      <c r="Q135">
+      <c r="R135">
         <v>5700</v>
       </c>
-      <c r="R135">
-        <v>33.76388603226827</v>
-      </c>
       <c r="S135">
-        <v>50270.67475915498</v>
+        <v>1140</v>
+      </c>
+      <c r="T135">
+        <v>1266.666666666667</v>
       </c>
     </row>
     <row r="136">
@@ -9478,25 +9885,28 @@
         <v>40</v>
       </c>
       <c r="M136">
+        <v>1</v>
+      </c>
+      <c r="N136">
         <v>1340</v>
       </c>
-      <c r="N136">
+      <c r="O136">
         <v>36</v>
       </c>
-      <c r="O136">
+      <c r="P136">
         <v>1.111111111111111</v>
       </c>
-      <c r="P136">
+      <c r="Q136">
         <v>3</v>
       </c>
-      <c r="Q136">
+      <c r="R136">
         <v>1300</v>
       </c>
-      <c r="R136">
-        <v>20.81665999466133</v>
-      </c>
       <c r="S136">
-        <v>30993.69376982909</v>
+        <v>433.3333333333333</v>
+      </c>
+      <c r="T136">
+        <v>481.4814814814815</v>
       </c>
     </row>
     <row r="137">
@@ -9545,25 +9955,28 @@
         <v>40</v>
       </c>
       <c r="M137">
+        <v>1</v>
+      </c>
+      <c r="N137">
         <v>1340</v>
       </c>
-      <c r="N137">
+      <c r="O137">
         <v>36</v>
       </c>
-      <c r="O137">
+      <c r="P137">
         <v>1.111111111111111</v>
       </c>
-      <c r="P137">
-        <v>1</v>
-      </c>
       <c r="Q137">
+        <v>1</v>
+      </c>
+      <c r="R137">
         <v>500</v>
       </c>
-      <c r="R137">
-        <v>22.3606797749979</v>
-      </c>
       <c r="S137">
-        <v>33292.56766499687</v>
+        <v>500</v>
+      </c>
+      <c r="T137">
+        <v>555.5555555555555</v>
       </c>
     </row>
     <row r="138">
@@ -9612,25 +10025,28 @@
         <v>40</v>
       </c>
       <c r="M138">
+        <v>1</v>
+      </c>
+      <c r="N138">
         <v>1340</v>
       </c>
-      <c r="N138">
+      <c r="O138">
         <v>36</v>
       </c>
-      <c r="O138">
+      <c r="P138">
         <v>1.111111111111111</v>
       </c>
-      <c r="P138">
+      <c r="Q138">
         <v>3</v>
       </c>
-      <c r="Q138">
+      <c r="R138">
         <v>1600</v>
       </c>
-      <c r="R138">
-        <v>23.09401076758503</v>
-      </c>
       <c r="S138">
-        <v>34384.41603173772</v>
+        <v>533.3333333333334</v>
+      </c>
+      <c r="T138">
+        <v>592.5925925925926</v>
       </c>
     </row>
     <row r="139">
@@ -9679,25 +10095,28 @@
         <v>40</v>
       </c>
       <c r="M139">
+        <v>1</v>
+      </c>
+      <c r="N139">
         <v>1340</v>
       </c>
-      <c r="N139">
+      <c r="O139">
         <v>36</v>
       </c>
-      <c r="O139">
+      <c r="P139">
         <v>1.111111111111111</v>
       </c>
-      <c r="P139">
+      <c r="Q139">
         <v>3</v>
       </c>
-      <c r="Q139">
+      <c r="R139">
         <v>1600</v>
       </c>
-      <c r="R139">
-        <v>23.09401076758503</v>
-      </c>
       <c r="S139">
-        <v>34384.41603173772</v>
+        <v>533.3333333333334</v>
+      </c>
+      <c r="T139">
+        <v>592.5925925925926</v>
       </c>
     </row>
     <row r="140">
@@ -9746,25 +10165,28 @@
         <v>40</v>
       </c>
       <c r="M140">
+        <v>1</v>
+      </c>
+      <c r="N140">
         <v>1340</v>
       </c>
-      <c r="N140">
+      <c r="O140">
         <v>36</v>
       </c>
-      <c r="O140">
+      <c r="P140">
         <v>1.111111111111111</v>
       </c>
-      <c r="P140">
+      <c r="Q140">
         <v>3</v>
       </c>
-      <c r="Q140">
+      <c r="R140">
         <v>1300</v>
       </c>
-      <c r="R140">
-        <v>20.81665999466133</v>
-      </c>
       <c r="S140">
-        <v>30993.69376982909</v>
+        <v>433.3333333333333</v>
+      </c>
+      <c r="T140">
+        <v>481.4814814814815</v>
       </c>
     </row>
     <row r="141">
@@ -9813,25 +10235,28 @@
         <v>40</v>
       </c>
       <c r="M141">
+        <v>1</v>
+      </c>
+      <c r="N141">
         <v>1340</v>
       </c>
-      <c r="N141">
+      <c r="O141">
         <v>36</v>
       </c>
-      <c r="O141">
+      <c r="P141">
         <v>1.111111111111111</v>
       </c>
-      <c r="P141">
+      <c r="Q141">
         <v>4</v>
       </c>
-      <c r="Q141">
+      <c r="R141">
         <v>3100</v>
       </c>
-      <c r="R141">
-        <v>27.83882181415011</v>
-      </c>
       <c r="S141">
-        <v>41448.91247884572</v>
+        <v>775</v>
+      </c>
+      <c r="T141">
+        <v>861.1111111111112</v>
       </c>
     </row>
     <row r="142">
@@ -9880,25 +10305,28 @@
         <v>40</v>
       </c>
       <c r="M142">
+        <v>1</v>
+      </c>
+      <c r="N142">
         <v>1340</v>
       </c>
-      <c r="N142">
+      <c r="O142">
         <v>36</v>
       </c>
-      <c r="O142">
+      <c r="P142">
         <v>1.111111111111111</v>
       </c>
-      <c r="P142">
+      <c r="Q142">
         <v>5</v>
       </c>
-      <c r="Q142">
+      <c r="R142">
         <v>5700</v>
       </c>
-      <c r="R142">
-        <v>33.76388603226827</v>
-      </c>
       <c r="S142">
-        <v>50270.67475915498</v>
+        <v>1140</v>
+      </c>
+      <c r="T142">
+        <v>1266.666666666667</v>
       </c>
     </row>
     <row r="143">
@@ -9947,25 +10375,28 @@
         <v>40</v>
       </c>
       <c r="M143">
+        <v>1</v>
+      </c>
+      <c r="N143">
         <v>1340</v>
       </c>
-      <c r="N143">
+      <c r="O143">
         <v>36</v>
       </c>
-      <c r="O143">
+      <c r="P143">
         <v>1.111111111111111</v>
       </c>
-      <c r="P143">
-        <v>1</v>
-      </c>
       <c r="Q143">
+        <v>1</v>
+      </c>
+      <c r="R143">
         <v>1600</v>
       </c>
-      <c r="R143">
-        <v>40</v>
-      </c>
       <c r="S143">
-        <v>59555.55555555555</v>
+        <v>1600</v>
+      </c>
+      <c r="T143">
+        <v>1777.777777777778</v>
       </c>
     </row>
     <row r="144">
@@ -10014,25 +10445,28 @@
         <v>40</v>
       </c>
       <c r="M144">
+        <v>1</v>
+      </c>
+      <c r="N144">
         <v>1340</v>
       </c>
-      <c r="N144">
+      <c r="O144">
         <v>36</v>
       </c>
-      <c r="O144">
+      <c r="P144">
         <v>1.111111111111111</v>
       </c>
-      <c r="P144">
+      <c r="Q144">
         <v>4</v>
       </c>
-      <c r="Q144">
+      <c r="R144">
         <v>600</v>
       </c>
-      <c r="R144">
-        <v>12.24744871391589</v>
-      </c>
       <c r="S144">
-        <v>18235.09030738588</v>
+        <v>150</v>
+      </c>
+      <c r="T144">
+        <v>166.6666666666667</v>
       </c>
     </row>
     <row r="145">
@@ -10081,25 +10515,28 @@
         <v>40</v>
       </c>
       <c r="M145">
+        <v>1</v>
+      </c>
+      <c r="N145">
         <v>1340</v>
       </c>
-      <c r="N145">
+      <c r="O145">
         <v>36</v>
       </c>
-      <c r="O145">
+      <c r="P145">
         <v>1.111111111111111</v>
       </c>
-      <c r="P145">
+      <c r="Q145">
         <v>2</v>
       </c>
-      <c r="Q145">
+      <c r="R145">
         <v>8200</v>
       </c>
-      <c r="R145">
-        <v>64.03124237432849</v>
-      </c>
       <c r="S145">
-        <v>95335.40531288908</v>
+        <v>4100</v>
+      </c>
+      <c r="T145">
+        <v>4555.555555555556</v>
       </c>
     </row>
     <row r="146">
@@ -10148,25 +10585,28 @@
         <v>40</v>
       </c>
       <c r="M146">
+        <v>1</v>
+      </c>
+      <c r="N146">
         <v>1340</v>
       </c>
-      <c r="N146">
+      <c r="O146">
         <v>36</v>
       </c>
-      <c r="O146">
+      <c r="P146">
         <v>1.111111111111111</v>
       </c>
-      <c r="P146">
-        <v>1</v>
-      </c>
       <c r="Q146">
+        <v>1</v>
+      </c>
+      <c r="R146">
         <v>3700</v>
       </c>
-      <c r="R146">
-        <v>60.8276253029822</v>
-      </c>
       <c r="S146">
-        <v>90565.57545110684</v>
+        <v>3700</v>
+      </c>
+      <c r="T146">
+        <v>4111.111111111111</v>
       </c>
     </row>
     <row r="147">
@@ -10215,25 +10655,28 @@
         <v>40</v>
       </c>
       <c r="M147">
+        <v>1</v>
+      </c>
+      <c r="N147">
         <v>1340</v>
       </c>
-      <c r="N147">
+      <c r="O147">
         <v>36</v>
       </c>
-      <c r="O147">
+      <c r="P147">
         <v>1.111111111111111</v>
       </c>
-      <c r="P147">
+      <c r="Q147">
         <v>3</v>
       </c>
-      <c r="Q147">
+      <c r="R147">
         <v>3600</v>
       </c>
-      <c r="R147">
-        <v>34.64101615137755</v>
-      </c>
       <c r="S147">
-        <v>51576.62404760657</v>
+        <v>1200</v>
+      </c>
+      <c r="T147">
+        <v>1333.333333333333</v>
       </c>
     </row>
     <row r="148">
@@ -10282,25 +10725,28 @@
         <v>40</v>
       </c>
       <c r="M148">
+        <v>1</v>
+      </c>
+      <c r="N148">
         <v>1340</v>
       </c>
-      <c r="N148">
+      <c r="O148">
         <v>36</v>
       </c>
-      <c r="O148">
+      <c r="P148">
         <v>1.111111111111111</v>
       </c>
-      <c r="P148">
+      <c r="Q148">
         <v>5</v>
       </c>
-      <c r="Q148">
+      <c r="R148">
         <v>5700</v>
       </c>
-      <c r="R148">
-        <v>33.76388603226827</v>
-      </c>
       <c r="S148">
-        <v>50270.67475915498</v>
+        <v>1140</v>
+      </c>
+      <c r="T148">
+        <v>1266.666666666667</v>
       </c>
     </row>
     <row r="149">
@@ -10349,25 +10795,28 @@
         <v>40</v>
       </c>
       <c r="M149">
+        <v>1</v>
+      </c>
+      <c r="N149">
         <v>1340</v>
       </c>
-      <c r="N149">
+      <c r="O149">
         <v>36</v>
       </c>
-      <c r="O149">
+      <c r="P149">
         <v>1.111111111111111</v>
       </c>
-      <c r="P149">
+      <c r="Q149">
         <v>2</v>
       </c>
-      <c r="Q149">
+      <c r="R149">
         <v>8200</v>
       </c>
-      <c r="R149">
-        <v>64.03124237432849</v>
-      </c>
       <c r="S149">
-        <v>95335.40531288908</v>
+        <v>4100</v>
+      </c>
+      <c r="T149">
+        <v>4555.555555555556</v>
       </c>
     </row>
     <row r="150">
@@ -10416,25 +10865,28 @@
         <v>40</v>
       </c>
       <c r="M150">
+        <v>1</v>
+      </c>
+      <c r="N150">
         <v>1340</v>
       </c>
-      <c r="N150">
+      <c r="O150">
         <v>36</v>
       </c>
-      <c r="O150">
+      <c r="P150">
         <v>1.111111111111111</v>
       </c>
-      <c r="P150">
-        <v>1</v>
-      </c>
       <c r="Q150">
+        <v>1</v>
+      </c>
+      <c r="R150">
         <v>700</v>
       </c>
-      <c r="R150">
-        <v>26.45751311064591</v>
-      </c>
       <c r="S150">
-        <v>39392.29729807279</v>
+        <v>700</v>
+      </c>
+      <c r="T150">
+        <v>777.7777777777778</v>
       </c>
     </row>
     <row r="151">
@@ -10483,25 +10935,28 @@
         <v>40</v>
       </c>
       <c r="M151">
+        <v>1</v>
+      </c>
+      <c r="N151">
         <v>1340</v>
       </c>
-      <c r="N151">
+      <c r="O151">
         <v>36</v>
       </c>
-      <c r="O151">
+      <c r="P151">
         <v>1.111111111111111</v>
       </c>
-      <c r="P151">
+      <c r="Q151">
         <v>3</v>
       </c>
-      <c r="Q151">
+      <c r="R151">
         <v>7500</v>
       </c>
-      <c r="R151">
-        <v>50</v>
-      </c>
       <c r="S151">
-        <v>74444.44444444445</v>
+        <v>2500</v>
+      </c>
+      <c r="T151">
+        <v>2777.777777777778</v>
       </c>
     </row>
     <row r="152">
@@ -10550,25 +11005,28 @@
         <v>40</v>
       </c>
       <c r="M152">
+        <v>1</v>
+      </c>
+      <c r="N152">
         <v>1340</v>
       </c>
-      <c r="N152">
+      <c r="O152">
         <v>36</v>
       </c>
-      <c r="O152">
+      <c r="P152">
         <v>1.111111111111111</v>
       </c>
-      <c r="P152">
+      <c r="Q152">
         <v>2</v>
       </c>
-      <c r="Q152">
+      <c r="R152">
         <v>3300</v>
       </c>
-      <c r="R152">
-        <v>40.6201920231798</v>
-      </c>
       <c r="S152">
-        <v>60478.95256784549</v>
+        <v>1650</v>
+      </c>
+      <c r="T152">
+        <v>1833.333333333333</v>
       </c>
     </row>
     <row r="153">
@@ -10617,25 +11075,28 @@
         <v>40</v>
       </c>
       <c r="M153">
+        <v>1</v>
+      </c>
+      <c r="N153">
         <v>1340</v>
       </c>
-      <c r="N153">
+      <c r="O153">
         <v>36</v>
       </c>
-      <c r="O153">
+      <c r="P153">
         <v>1.111111111111111</v>
       </c>
-      <c r="P153">
+      <c r="Q153">
         <v>4</v>
       </c>
-      <c r="Q153">
+      <c r="R153">
         <v>600</v>
       </c>
-      <c r="R153">
-        <v>12.24744871391589</v>
-      </c>
       <c r="S153">
-        <v>18235.09030738588</v>
+        <v>150</v>
+      </c>
+      <c r="T153">
+        <v>166.6666666666667</v>
       </c>
     </row>
     <row r="154">
@@ -10684,25 +11145,28 @@
         <v>40</v>
       </c>
       <c r="M154">
+        <v>1</v>
+      </c>
+      <c r="N154">
         <v>1340</v>
       </c>
-      <c r="N154">
+      <c r="O154">
         <v>36</v>
       </c>
-      <c r="O154">
+      <c r="P154">
         <v>1.111111111111111</v>
       </c>
-      <c r="P154">
-        <v>1</v>
-      </c>
       <c r="Q154">
+        <v>1</v>
+      </c>
+      <c r="R154">
         <v>5900</v>
       </c>
-      <c r="R154">
-        <v>76.81145747868608</v>
-      </c>
       <c r="S154">
-        <v>114363.7255793771</v>
+        <v>5900</v>
+      </c>
+      <c r="T154">
+        <v>6555.555555555556</v>
       </c>
     </row>
     <row r="155">
@@ -10751,25 +11215,28 @@
         <v>40</v>
       </c>
       <c r="M155">
+        <v>1</v>
+      </c>
+      <c r="N155">
         <v>1340</v>
       </c>
-      <c r="N155">
+      <c r="O155">
         <v>36</v>
       </c>
-      <c r="O155">
+      <c r="P155">
         <v>1.111111111111111</v>
       </c>
-      <c r="P155">
+      <c r="Q155">
         <v>3</v>
       </c>
-      <c r="Q155">
+      <c r="R155">
         <v>1300</v>
       </c>
-      <c r="R155">
-        <v>20.81665999466133</v>
-      </c>
       <c r="S155">
-        <v>30993.69376982909</v>
+        <v>433.3333333333333</v>
+      </c>
+      <c r="T155">
+        <v>481.4814814814815</v>
       </c>
     </row>
     <row r="156">
@@ -10818,25 +11285,28 @@
         <v>40</v>
       </c>
       <c r="M156">
+        <v>1</v>
+      </c>
+      <c r="N156">
         <v>1340</v>
       </c>
-      <c r="N156">
+      <c r="O156">
         <v>36</v>
       </c>
-      <c r="O156">
+      <c r="P156">
         <v>1.111111111111111</v>
       </c>
-      <c r="P156">
+      <c r="Q156">
         <v>5</v>
       </c>
-      <c r="Q156">
+      <c r="R156">
         <v>5700</v>
       </c>
-      <c r="R156">
-        <v>33.76388603226827</v>
-      </c>
       <c r="S156">
-        <v>50270.67475915498</v>
+        <v>1140</v>
+      </c>
+      <c r="T156">
+        <v>1266.666666666667</v>
       </c>
     </row>
     <row r="157">
@@ -10885,25 +11355,28 @@
         <v>40</v>
       </c>
       <c r="M157">
+        <v>1</v>
+      </c>
+      <c r="N157">
         <v>1340</v>
       </c>
-      <c r="N157">
+      <c r="O157">
         <v>36</v>
       </c>
-      <c r="O157">
+      <c r="P157">
         <v>1.111111111111111</v>
       </c>
-      <c r="P157">
+      <c r="Q157">
         <v>3</v>
       </c>
-      <c r="Q157">
+      <c r="R157">
         <v>7500</v>
       </c>
-      <c r="R157">
-        <v>50</v>
-      </c>
       <c r="S157">
-        <v>74444.44444444445</v>
+        <v>2500</v>
+      </c>
+      <c r="T157">
+        <v>2777.777777777778</v>
       </c>
     </row>
     <row r="158">
@@ -10952,25 +11425,28 @@
         <v>40</v>
       </c>
       <c r="M158">
+        <v>1</v>
+      </c>
+      <c r="N158">
         <v>1340</v>
       </c>
-      <c r="N158">
+      <c r="O158">
         <v>36</v>
       </c>
-      <c r="O158">
+      <c r="P158">
         <v>1.111111111111111</v>
       </c>
-      <c r="P158">
+      <c r="Q158">
         <v>3</v>
       </c>
-      <c r="Q158">
+      <c r="R158">
         <v>1600</v>
       </c>
-      <c r="R158">
-        <v>23.09401076758503</v>
-      </c>
       <c r="S158">
-        <v>34384.41603173772</v>
+        <v>533.3333333333334</v>
+      </c>
+      <c r="T158">
+        <v>592.5925925925926</v>
       </c>
     </row>
     <row r="159">
@@ -11019,25 +11495,28 @@
         <v>40</v>
       </c>
       <c r="M159">
+        <v>1</v>
+      </c>
+      <c r="N159">
         <v>1340</v>
       </c>
-      <c r="N159">
+      <c r="O159">
         <v>36</v>
       </c>
-      <c r="O159">
+      <c r="P159">
         <v>1.111111111111111</v>
       </c>
-      <c r="P159">
+      <c r="Q159">
         <v>2</v>
       </c>
-      <c r="Q159">
+      <c r="R159">
         <v>3300</v>
       </c>
-      <c r="R159">
-        <v>40.6201920231798</v>
-      </c>
       <c r="S159">
-        <v>60478.95256784549</v>
+        <v>1650</v>
+      </c>
+      <c r="T159">
+        <v>1833.333333333333</v>
       </c>
     </row>
   </sheetData>

--- a/0_PrepDataSim/20240926_SelSimData.xlsx
+++ b/0_PrepDataSim/20240926_SelSimData.xlsx
@@ -477,10 +477,10 @@
         </is>
       </c>
       <c r="F2">
-        <v>1.63</v>
+        <v>164</v>
       </c>
       <c r="G2">
-        <v>74.40000000000001</v>
+        <v>75.8</v>
       </c>
       <c r="H2">
         <v>5</v>
@@ -542,10 +542,10 @@
         </is>
       </c>
       <c r="F3">
-        <v>1.81</v>
+        <v>169</v>
       </c>
       <c r="G3">
-        <v>104.6</v>
+        <v>91.59999999999999</v>
       </c>
       <c r="H3">
         <v>4</v>
@@ -607,10 +607,10 @@
         </is>
       </c>
       <c r="F4">
-        <v>1.68</v>
+        <v>165</v>
       </c>
       <c r="G4">
-        <v>73.90000000000001</v>
+        <v>71.7</v>
       </c>
       <c r="H4">
         <v>5</v>
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="F5">
-        <v>1.65</v>
+        <v>164</v>
       </c>
       <c r="G5">
         <v>68.40000000000001</v>
@@ -737,10 +737,10 @@
         </is>
       </c>
       <c r="F6">
-        <v>1.47</v>
+        <v>160</v>
       </c>
       <c r="G6">
-        <v>50.9</v>
+        <v>60.2</v>
       </c>
       <c r="H6">
         <v>2</v>
@@ -802,10 +802,10 @@
         </is>
       </c>
       <c r="F7">
-        <v>1.56</v>
+        <v>162</v>
       </c>
       <c r="G7">
-        <v>58.7</v>
+        <v>63.6</v>
       </c>
       <c r="H7">
         <v>2</v>
@@ -867,10 +867,10 @@
         </is>
       </c>
       <c r="F8">
-        <v>1.72</v>
+        <v>166</v>
       </c>
       <c r="G8">
-        <v>88.5</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="H8">
         <v>4</v>
@@ -932,10 +932,10 @@
         </is>
       </c>
       <c r="F9">
-        <v>1.61</v>
+        <v>163</v>
       </c>
       <c r="G9">
-        <v>72.59999999999999</v>
+        <v>75.2</v>
       </c>
       <c r="H9">
         <v>5</v>
@@ -997,10 +997,10 @@
         </is>
       </c>
       <c r="F10">
-        <v>1.69</v>
+        <v>166</v>
       </c>
       <c r="G10">
-        <v>74.8</v>
+        <v>72</v>
       </c>
       <c r="H10">
         <v>2</v>
@@ -1062,10 +1062,10 @@
         </is>
       </c>
       <c r="F11">
-        <v>1.69</v>
+        <v>166</v>
       </c>
       <c r="G11">
-        <v>69.90000000000001</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="H11">
         <v>4</v>
@@ -1127,10 +1127,10 @@
         </is>
       </c>
       <c r="F12">
-        <v>1.68</v>
+        <v>165</v>
       </c>
       <c r="G12">
-        <v>84</v>
+        <v>81.5</v>
       </c>
       <c r="H12">
         <v>2</v>
@@ -1192,10 +1192,10 @@
         </is>
       </c>
       <c r="F13">
-        <v>1.57</v>
+        <v>162</v>
       </c>
       <c r="G13">
-        <v>80.3</v>
+        <v>86</v>
       </c>
       <c r="H13">
         <v>3</v>
@@ -1257,10 +1257,10 @@
         </is>
       </c>
       <c r="F14">
-        <v>1.74</v>
+        <v>167</v>
       </c>
       <c r="G14">
-        <v>76.8</v>
+        <v>70.90000000000001</v>
       </c>
       <c r="H14">
         <v>4</v>
@@ -1322,10 +1322,10 @@
         </is>
       </c>
       <c r="F15">
-        <v>1.56</v>
+        <v>162</v>
       </c>
       <c r="G15">
-        <v>51</v>
+        <v>55.5</v>
       </c>
       <c r="H15">
         <v>4</v>
@@ -1387,10 +1387,10 @@
         </is>
       </c>
       <c r="F16">
-        <v>1.65</v>
+        <v>165</v>
       </c>
       <c r="G16">
-        <v>63.5</v>
+        <v>63.2</v>
       </c>
       <c r="H16">
         <v>5</v>
@@ -1452,10 +1452,10 @@
         </is>
       </c>
       <c r="F17">
-        <v>1.54</v>
+        <v>161</v>
       </c>
       <c r="G17">
-        <v>59.6</v>
+        <v>66</v>
       </c>
       <c r="H17">
         <v>2</v>
@@ -1517,10 +1517,10 @@
         </is>
       </c>
       <c r="F18">
-        <v>1.56</v>
+        <v>162</v>
       </c>
       <c r="G18">
-        <v>59.5</v>
+        <v>64.3</v>
       </c>
       <c r="H18">
         <v>3</v>
@@ -1582,10 +1582,10 @@
         </is>
       </c>
       <c r="F19">
-        <v>1.73</v>
+        <v>167</v>
       </c>
       <c r="G19">
-        <v>81.59999999999999</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="H19">
         <v>4</v>
@@ -1647,10 +1647,10 @@
         </is>
       </c>
       <c r="F20">
-        <v>1.64</v>
+        <v>164</v>
       </c>
       <c r="G20">
-        <v>58.3</v>
+        <v>58.8</v>
       </c>
       <c r="H20">
         <v>4</v>
@@ -1712,10 +1712,10 @@
         </is>
       </c>
       <c r="F21">
-        <v>1.64</v>
+        <v>164</v>
       </c>
       <c r="G21">
-        <v>75.5</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="H21">
         <v>3</v>
@@ -1777,10 +1777,10 @@
         </is>
       </c>
       <c r="F22">
-        <v>1.67</v>
+        <v>165</v>
       </c>
       <c r="G22">
-        <v>72.5</v>
+        <v>71.3</v>
       </c>
       <c r="H22">
         <v>3</v>
@@ -1842,10 +1842,10 @@
         </is>
       </c>
       <c r="F23">
-        <v>1.67</v>
+        <v>165</v>
       </c>
       <c r="G23">
-        <v>73.90000000000001</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="H23">
         <v>4</v>
@@ -1907,10 +1907,10 @@
         </is>
       </c>
       <c r="F24">
-        <v>1.73</v>
+        <v>167</v>
       </c>
       <c r="G24">
-        <v>65.5</v>
+        <v>61.1</v>
       </c>
       <c r="H24">
         <v>5</v>
@@ -1972,10 +1972,10 @@
         </is>
       </c>
       <c r="F25">
-        <v>1.58</v>
+        <v>162</v>
       </c>
       <c r="G25">
-        <v>68.2</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="H25">
         <v>3</v>
@@ -2037,10 +2037,10 @@
         </is>
       </c>
       <c r="F26">
-        <v>1.67</v>
+        <v>165</v>
       </c>
       <c r="G26">
-        <v>74.2</v>
+        <v>72.7</v>
       </c>
       <c r="H26">
         <v>2</v>
@@ -2102,10 +2102,10 @@
         </is>
       </c>
       <c r="F27">
-        <v>1.57</v>
+        <v>162</v>
       </c>
       <c r="G27">
-        <v>69.40000000000001</v>
+        <v>74.8</v>
       </c>
       <c r="H27">
         <v>4</v>
@@ -2167,10 +2167,10 @@
         </is>
       </c>
       <c r="F28">
-        <v>1.46</v>
+        <v>159</v>
       </c>
       <c r="G28">
-        <v>52</v>
+        <v>62.4</v>
       </c>
       <c r="H28">
         <v>5</v>
@@ -2232,10 +2232,10 @@
         </is>
       </c>
       <c r="F29">
-        <v>1.51</v>
+        <v>161</v>
       </c>
       <c r="G29">
-        <v>61</v>
+        <v>69.40000000000001</v>
       </c>
       <c r="H29">
         <v>5</v>
@@ -2297,10 +2297,10 @@
         </is>
       </c>
       <c r="F30">
-        <v>1.76</v>
+        <v>168</v>
       </c>
       <c r="G30">
-        <v>66.2</v>
+        <v>60.5</v>
       </c>
       <c r="H30">
         <v>5</v>
@@ -2362,10 +2362,10 @@
         </is>
       </c>
       <c r="F31">
-        <v>1.73</v>
+        <v>167</v>
       </c>
       <c r="G31">
-        <v>71</v>
+        <v>66.2</v>
       </c>
       <c r="H31">
         <v>3</v>
@@ -2427,10 +2427,10 @@
         </is>
       </c>
       <c r="F32">
-        <v>1.55</v>
+        <v>162</v>
       </c>
       <c r="G32">
-        <v>62.2</v>
+        <v>68.3</v>
       </c>
       <c r="H32">
         <v>3</v>
@@ -2492,10 +2492,10 @@
         </is>
       </c>
       <c r="F33">
-        <v>1.56</v>
+        <v>162</v>
       </c>
       <c r="G33">
-        <v>69.40000000000001</v>
+        <v>75.2</v>
       </c>
       <c r="H33">
         <v>3</v>
@@ -2557,10 +2557,10 @@
         </is>
       </c>
       <c r="F34">
-        <v>1.44</v>
+        <v>159</v>
       </c>
       <c r="G34">
-        <v>53.1</v>
+        <v>64.90000000000001</v>
       </c>
       <c r="H34">
         <v>5</v>
@@ -2622,10 +2622,10 @@
         </is>
       </c>
       <c r="F35">
-        <v>1.58</v>
+        <v>162</v>
       </c>
       <c r="G35">
-        <v>52.5</v>
+        <v>56</v>
       </c>
       <c r="H35">
         <v>5</v>
@@ -2687,10 +2687,10 @@
         </is>
       </c>
       <c r="F36">
-        <v>1.76</v>
+        <v>168</v>
       </c>
       <c r="G36">
-        <v>84.90000000000001</v>
+        <v>77.5</v>
       </c>
       <c r="H36">
         <v>2</v>
@@ -2752,10 +2752,10 @@
         </is>
       </c>
       <c r="F37">
-        <v>1.58</v>
+        <v>163</v>
       </c>
       <c r="G37">
-        <v>61</v>
+        <v>64.8</v>
       </c>
       <c r="H37">
         <v>5</v>
@@ -2817,10 +2817,10 @@
         </is>
       </c>
       <c r="F38">
-        <v>1.73</v>
+        <v>167</v>
       </c>
       <c r="G38">
-        <v>75.09999999999999</v>
+        <v>70.09999999999999</v>
       </c>
       <c r="H38">
         <v>5</v>
@@ -2882,10 +2882,10 @@
         </is>
       </c>
       <c r="F39">
-        <v>1.58</v>
+        <v>162</v>
       </c>
       <c r="G39">
-        <v>64.3</v>
+        <v>68.7</v>
       </c>
       <c r="H39">
         <v>4</v>
@@ -2947,10 +2947,10 @@
         </is>
       </c>
       <c r="F40">
-        <v>1.65</v>
+        <v>165</v>
       </c>
       <c r="G40">
-        <v>74.09999999999999</v>
+        <v>73.90000000000001</v>
       </c>
       <c r="H40">
         <v>3</v>
@@ -3012,10 +3012,10 @@
         </is>
       </c>
       <c r="F41">
-        <v>1.65</v>
+        <v>165</v>
       </c>
       <c r="G41">
-        <v>83.09999999999999</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="H41">
         <v>5</v>
@@ -3077,10 +3077,10 @@
         </is>
       </c>
       <c r="F42">
-        <v>1.77</v>
+        <v>168</v>
       </c>
       <c r="G42">
-        <v>85.8</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="H42">
         <v>2</v>
@@ -3142,10 +3142,10 @@
         </is>
       </c>
       <c r="F43">
-        <v>1.82</v>
+        <v>169</v>
       </c>
       <c r="G43">
-        <v>79.59999999999999</v>
+        <v>69.2</v>
       </c>
       <c r="H43">
         <v>3</v>
@@ -3207,10 +3207,10 @@
         </is>
       </c>
       <c r="F44">
-        <v>1.6</v>
+        <v>163</v>
       </c>
       <c r="G44">
-        <v>62.3</v>
+        <v>65</v>
       </c>
       <c r="H44">
         <v>4</v>
@@ -3272,10 +3272,10 @@
         </is>
       </c>
       <c r="F45">
-        <v>1.57</v>
+        <v>162</v>
       </c>
       <c r="G45">
-        <v>62.9</v>
+        <v>67.5</v>
       </c>
       <c r="H45">
         <v>3</v>
@@ -3337,10 +3337,10 @@
         </is>
       </c>
       <c r="F46">
-        <v>1.79</v>
+        <v>168</v>
       </c>
       <c r="G46">
-        <v>78.5</v>
+        <v>70.09999999999999</v>
       </c>
       <c r="H46">
         <v>2</v>
@@ -3402,10 +3402,10 @@
         </is>
       </c>
       <c r="F47">
-        <v>1.58</v>
+        <v>163</v>
       </c>
       <c r="G47">
-        <v>67.59999999999999</v>
+        <v>71.7</v>
       </c>
       <c r="H47">
         <v>3</v>
@@ -3467,10 +3467,10 @@
         </is>
       </c>
       <c r="F48">
-        <v>1.7</v>
+        <v>166</v>
       </c>
       <c r="G48">
-        <v>70.59999999999999</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="H48">
         <v>4</v>
@@ -3532,10 +3532,10 @@
         </is>
       </c>
       <c r="F49">
-        <v>1.63</v>
+        <v>164</v>
       </c>
       <c r="G49">
-        <v>70.59999999999999</v>
+        <v>72</v>
       </c>
       <c r="H49">
         <v>5</v>
@@ -3597,10 +3597,10 @@
         </is>
       </c>
       <c r="F50">
-        <v>1.69</v>
+        <v>166</v>
       </c>
       <c r="G50">
-        <v>80.40000000000001</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="H50">
         <v>5</v>
@@ -3662,10 +3662,10 @@
         </is>
       </c>
       <c r="F51">
-        <v>1.59</v>
+        <v>163</v>
       </c>
       <c r="G51">
-        <v>59.7</v>
+        <v>63.1</v>
       </c>
       <c r="H51">
         <v>4</v>
@@ -3727,10 +3727,10 @@
         </is>
       </c>
       <c r="F52">
-        <v>1.79</v>
+        <v>168</v>
       </c>
       <c r="G52">
-        <v>92.09999999999999</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="H52">
         <v>4</v>
@@ -3792,10 +3792,10 @@
         </is>
       </c>
       <c r="F53">
-        <v>1.58</v>
+        <v>163</v>
       </c>
       <c r="G53">
-        <v>72.8</v>
+        <v>77.3</v>
       </c>
       <c r="H53">
         <v>4</v>
@@ -3857,10 +3857,10 @@
         </is>
       </c>
       <c r="F54">
-        <v>1.76</v>
+        <v>167</v>
       </c>
       <c r="G54">
-        <v>90.2</v>
+        <v>82.5</v>
       </c>
       <c r="H54">
         <v>2</v>
@@ -3922,10 +3922,10 @@
         </is>
       </c>
       <c r="F55">
-        <v>1.77</v>
+        <v>168</v>
       </c>
       <c r="G55">
-        <v>81.09999999999999</v>
+        <v>73.3</v>
       </c>
       <c r="H55">
         <v>3</v>
@@ -3987,10 +3987,10 @@
         </is>
       </c>
       <c r="F56">
-        <v>1.75</v>
+        <v>167</v>
       </c>
       <c r="G56">
-        <v>91.3</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="H56">
         <v>2</v>
@@ -4052,10 +4052,10 @@
         </is>
       </c>
       <c r="F57">
-        <v>1.73</v>
+        <v>167</v>
       </c>
       <c r="G57">
-        <v>80.3</v>
+        <v>75.09999999999999</v>
       </c>
       <c r="H57">
         <v>3</v>
@@ -4117,10 +4117,10 @@
         </is>
       </c>
       <c r="F58">
-        <v>1.59</v>
+        <v>163</v>
       </c>
       <c r="G58">
-        <v>79</v>
+        <v>83.7</v>
       </c>
       <c r="H58">
         <v>5</v>
@@ -4182,10 +4182,10 @@
         </is>
       </c>
       <c r="F59">
-        <v>1.73</v>
+        <v>167</v>
       </c>
       <c r="G59">
-        <v>97.8</v>
+        <v>91.40000000000001</v>
       </c>
       <c r="H59">
         <v>3</v>
@@ -4247,10 +4247,10 @@
         </is>
       </c>
       <c r="F60">
-        <v>1.8</v>
+        <v>169</v>
       </c>
       <c r="G60">
-        <v>84.2</v>
+        <v>74.3</v>
       </c>
       <c r="H60">
         <v>5</v>
@@ -4312,10 +4312,10 @@
         </is>
       </c>
       <c r="F61">
-        <v>1.61</v>
+        <v>163</v>
       </c>
       <c r="G61">
-        <v>58.4</v>
+        <v>60.4</v>
       </c>
       <c r="H61">
         <v>3</v>
@@ -4377,10 +4377,10 @@
         </is>
       </c>
       <c r="F62">
-        <v>1.45</v>
+        <v>159</v>
       </c>
       <c r="G62">
-        <v>61.3</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="H62">
         <v>3</v>
@@ -4442,10 +4442,10 @@
         </is>
       </c>
       <c r="F63">
-        <v>1.8</v>
+        <v>169</v>
       </c>
       <c r="G63">
-        <v>76.90000000000001</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="H63">
         <v>2</v>
@@ -4507,10 +4507,10 @@
         </is>
       </c>
       <c r="F64">
-        <v>1.81</v>
+        <v>169</v>
       </c>
       <c r="G64">
-        <v>70.59999999999999</v>
+        <v>61.9</v>
       </c>
       <c r="H64">
         <v>5</v>
@@ -4572,10 +4572,10 @@
         </is>
       </c>
       <c r="F65">
-        <v>1.53</v>
+        <v>161</v>
       </c>
       <c r="G65">
-        <v>62.1</v>
+        <v>69.3</v>
       </c>
       <c r="H65">
         <v>3</v>
@@ -4637,10 +4637,10 @@
         </is>
       </c>
       <c r="F66">
-        <v>1.43</v>
+        <v>158</v>
       </c>
       <c r="G66">
-        <v>51.3</v>
+        <v>63.5</v>
       </c>
       <c r="H66">
         <v>2</v>
@@ -4702,10 +4702,10 @@
         </is>
       </c>
       <c r="F67">
-        <v>1.7</v>
+        <v>166</v>
       </c>
       <c r="G67">
-        <v>81.59999999999999</v>
+        <v>78.5</v>
       </c>
       <c r="H67">
         <v>3</v>
@@ -4767,10 +4767,10 @@
         </is>
       </c>
       <c r="F68">
-        <v>1.59</v>
+        <v>163</v>
       </c>
       <c r="G68">
-        <v>72.3</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="H68">
         <v>2</v>
@@ -4832,10 +4832,10 @@
         </is>
       </c>
       <c r="F69">
-        <v>1.63</v>
+        <v>164</v>
       </c>
       <c r="G69">
-        <v>67.40000000000001</v>
+        <v>68.7</v>
       </c>
       <c r="H69">
         <v>5</v>
@@ -4897,10 +4897,10 @@
         </is>
       </c>
       <c r="F70">
-        <v>1.64</v>
+        <v>164</v>
       </c>
       <c r="G70">
-        <v>68</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="H70">
         <v>3</v>
@@ -4962,10 +4962,10 @@
         </is>
       </c>
       <c r="F71">
-        <v>1.73</v>
+        <v>167</v>
       </c>
       <c r="G71">
-        <v>83.90000000000001</v>
+        <v>78.7</v>
       </c>
       <c r="H71">
         <v>4</v>
@@ -5027,10 +5027,10 @@
         </is>
       </c>
       <c r="F72">
-        <v>1.79</v>
+        <v>168</v>
       </c>
       <c r="G72">
-        <v>73.90000000000001</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="H72">
         <v>3</v>
@@ -5092,10 +5092,10 @@
         </is>
       </c>
       <c r="F73">
-        <v>1.72</v>
+        <v>166</v>
       </c>
       <c r="G73">
-        <v>78</v>
+        <v>73.8</v>
       </c>
       <c r="H73">
         <v>5</v>
@@ -5157,10 +5157,10 @@
         </is>
       </c>
       <c r="F74">
-        <v>1.72</v>
+        <v>167</v>
       </c>
       <c r="G74">
-        <v>79.90000000000001</v>
+        <v>75.09999999999999</v>
       </c>
       <c r="H74">
         <v>2</v>
@@ -5222,10 +5222,10 @@
         </is>
       </c>
       <c r="F75">
-        <v>1.79</v>
+        <v>169</v>
       </c>
       <c r="G75">
-        <v>69</v>
+        <v>61.3</v>
       </c>
       <c r="H75">
         <v>3</v>
@@ -5287,10 +5287,10 @@
         </is>
       </c>
       <c r="F76">
-        <v>1.55</v>
+        <v>162</v>
       </c>
       <c r="G76">
-        <v>65.09999999999999</v>
+        <v>71.2</v>
       </c>
       <c r="H76">
         <v>2</v>
@@ -5352,10 +5352,10 @@
         </is>
       </c>
       <c r="F77">
-        <v>1.65</v>
+        <v>165</v>
       </c>
       <c r="G77">
-        <v>63.2</v>
+        <v>63</v>
       </c>
       <c r="H77">
         <v>4</v>
@@ -5417,10 +5417,10 @@
         </is>
       </c>
       <c r="F78">
-        <v>1.62</v>
+        <v>164</v>
       </c>
       <c r="G78">
-        <v>68.90000000000001</v>
+        <v>70.8</v>
       </c>
       <c r="H78">
         <v>4</v>
@@ -5482,10 +5482,10 @@
         </is>
       </c>
       <c r="F79">
-        <v>1.68</v>
+        <v>165</v>
       </c>
       <c r="G79">
-        <v>76.8</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="H79">
         <v>5</v>
@@ -5547,10 +5547,10 @@
         </is>
       </c>
       <c r="F80">
-        <v>1.75</v>
+        <v>167</v>
       </c>
       <c r="G80">
-        <v>85.59999999999999</v>
+        <v>78.5</v>
       </c>
       <c r="H80">
         <v>5</v>
@@ -5612,10 +5612,10 @@
         </is>
       </c>
       <c r="F81">
-        <v>1.68</v>
+        <v>165</v>
       </c>
       <c r="G81">
-        <v>65.8</v>
+        <v>64.40000000000001</v>
       </c>
       <c r="H81">
         <v>2</v>
@@ -5677,10 +5677,10 @@
         </is>
       </c>
       <c r="F82">
-        <v>1.58</v>
+        <v>163</v>
       </c>
       <c r="G82">
-        <v>64.3</v>
+        <v>68.3</v>
       </c>
       <c r="H82">
         <v>5</v>
@@ -5742,10 +5742,10 @@
         </is>
       </c>
       <c r="F83">
-        <v>1.75</v>
+        <v>167</v>
       </c>
       <c r="G83">
-        <v>85.3</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="H83">
         <v>3</v>
@@ -5807,10 +5807,10 @@
         </is>
       </c>
       <c r="F84">
-        <v>1.77</v>
+        <v>168</v>
       </c>
       <c r="G84">
-        <v>92.2</v>
+        <v>83.5</v>
       </c>
       <c r="H84">
         <v>2</v>
@@ -5872,10 +5872,10 @@
         </is>
       </c>
       <c r="F85">
-        <v>1.63</v>
+        <v>164</v>
       </c>
       <c r="G85">
-        <v>67.59999999999999</v>
+        <v>68.5</v>
       </c>
       <c r="H85">
         <v>4</v>
@@ -5937,10 +5937,10 @@
         </is>
       </c>
       <c r="F86">
-        <v>1.56</v>
+        <v>162</v>
       </c>
       <c r="G86">
-        <v>67</v>
+        <v>72.7</v>
       </c>
       <c r="H86">
         <v>5</v>
@@ -6002,10 +6002,10 @@
         </is>
       </c>
       <c r="F87">
-        <v>1.57</v>
+        <v>162</v>
       </c>
       <c r="G87">
-        <v>69.59999999999999</v>
+        <v>74.8</v>
       </c>
       <c r="H87">
         <v>3</v>
@@ -6067,10 +6067,10 @@
         </is>
       </c>
       <c r="F88">
-        <v>1.63</v>
+        <v>164</v>
       </c>
       <c r="G88">
-        <v>65.5</v>
+        <v>66.8</v>
       </c>
       <c r="H88">
         <v>3</v>
@@ -6132,7 +6132,7 @@
         </is>
       </c>
       <c r="F89">
-        <v>1.65</v>
+        <v>164</v>
       </c>
       <c r="G89">
         <v>69.59999999999999</v>
@@ -6197,10 +6197,10 @@
         </is>
       </c>
       <c r="F90">
-        <v>1.67</v>
+        <v>165</v>
       </c>
       <c r="G90">
-        <v>75.5</v>
+        <v>74.3</v>
       </c>
       <c r="H90">
         <v>2</v>
@@ -6262,10 +6262,10 @@
         </is>
       </c>
       <c r="F91">
-        <v>1.59</v>
+        <v>163</v>
       </c>
       <c r="G91">
-        <v>60.8</v>
+        <v>64.2</v>
       </c>
       <c r="H91">
         <v>2</v>
@@ -6327,10 +6327,10 @@
         </is>
       </c>
       <c r="F92">
-        <v>1.68</v>
+        <v>165</v>
       </c>
       <c r="G92">
-        <v>71.2</v>
+        <v>69.3</v>
       </c>
       <c r="H92">
         <v>2</v>
@@ -6392,10 +6392,10 @@
         </is>
       </c>
       <c r="F93">
-        <v>1.77</v>
+        <v>168</v>
       </c>
       <c r="G93">
-        <v>66.2</v>
+        <v>59.8</v>
       </c>
       <c r="H93">
         <v>4</v>
@@ -6457,10 +6457,10 @@
         </is>
       </c>
       <c r="F94">
-        <v>1.57</v>
+        <v>162</v>
       </c>
       <c r="G94">
-        <v>65.5</v>
+        <v>70.09999999999999</v>
       </c>
       <c r="H94">
         <v>3</v>
@@ -6522,10 +6522,10 @@
         </is>
       </c>
       <c r="F95">
-        <v>1.73</v>
+        <v>167</v>
       </c>
       <c r="G95">
-        <v>73</v>
+        <v>68.2</v>
       </c>
       <c r="H95">
         <v>3</v>
@@ -6587,10 +6587,10 @@
         </is>
       </c>
       <c r="F96">
-        <v>1.66</v>
+        <v>165</v>
       </c>
       <c r="G96">
-        <v>65.2</v>
+        <v>64.5</v>
       </c>
       <c r="H96">
         <v>3</v>
@@ -6652,10 +6652,10 @@
         </is>
       </c>
       <c r="F97">
-        <v>1.75</v>
+        <v>167</v>
       </c>
       <c r="G97">
-        <v>84.8</v>
+        <v>77.8</v>
       </c>
       <c r="H97">
         <v>4</v>
@@ -6717,10 +6717,10 @@
         </is>
       </c>
       <c r="F98">
-        <v>1.66</v>
+        <v>165</v>
       </c>
       <c r="G98">
-        <v>74.8</v>
+        <v>74.09999999999999</v>
       </c>
       <c r="H98">
         <v>3</v>
@@ -6782,10 +6782,10 @@
         </is>
       </c>
       <c r="F99">
-        <v>1.73</v>
+        <v>167</v>
       </c>
       <c r="G99">
-        <v>91.5</v>
+        <v>85.3</v>
       </c>
       <c r="H99">
         <v>4</v>
@@ -6847,10 +6847,10 @@
         </is>
       </c>
       <c r="F100">
-        <v>1.67</v>
+        <v>165</v>
       </c>
       <c r="G100">
-        <v>72</v>
+        <v>70.7</v>
       </c>
       <c r="H100">
         <v>5</v>
@@ -6912,10 +6912,10 @@
         </is>
       </c>
       <c r="F101">
-        <v>1.8</v>
+        <v>169</v>
       </c>
       <c r="G101">
-        <v>91.2</v>
+        <v>80.8</v>
       </c>
       <c r="H101">
         <v>5</v>
@@ -6977,10 +6977,10 @@
         </is>
       </c>
       <c r="F102">
-        <v>1.58</v>
+        <v>163</v>
       </c>
       <c r="G102">
-        <v>66.3</v>
+        <v>70.7</v>
       </c>
       <c r="H102">
         <v>2</v>
@@ -7042,10 +7042,10 @@
         </is>
       </c>
       <c r="F103">
-        <v>1.67</v>
+        <v>165</v>
       </c>
       <c r="G103">
-        <v>68.3</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="H103">
         <v>5</v>
@@ -7107,10 +7107,10 @@
         </is>
       </c>
       <c r="F104">
-        <v>1.55</v>
+        <v>162</v>
       </c>
       <c r="G104">
-        <v>65.3</v>
+        <v>71.8</v>
       </c>
       <c r="H104">
         <v>2</v>
@@ -7172,10 +7172,10 @@
         </is>
       </c>
       <c r="F105">
-        <v>1.7</v>
+        <v>166</v>
       </c>
       <c r="G105">
-        <v>77.2</v>
+        <v>74</v>
       </c>
       <c r="H105">
         <v>2</v>
@@ -7237,10 +7237,10 @@
         </is>
       </c>
       <c r="F106">
-        <v>1.56</v>
+        <v>162</v>
       </c>
       <c r="G106">
-        <v>56.9</v>
+        <v>61.9</v>
       </c>
       <c r="H106">
         <v>3</v>
@@ -7302,10 +7302,10 @@
         </is>
       </c>
       <c r="F107">
-        <v>1.61</v>
+        <v>163</v>
       </c>
       <c r="G107">
-        <v>64.3</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="H107">
         <v>2</v>
@@ -7367,10 +7367,10 @@
         </is>
       </c>
       <c r="F108">
-        <v>1.55</v>
+        <v>162</v>
       </c>
       <c r="G108">
-        <v>62.3</v>
+        <v>68.3</v>
       </c>
       <c r="H108">
         <v>2</v>
@@ -7432,10 +7432,10 @@
         </is>
       </c>
       <c r="F109">
-        <v>1.6</v>
+        <v>163</v>
       </c>
       <c r="G109">
-        <v>66.7</v>
+        <v>69.5</v>
       </c>
       <c r="H109">
         <v>2</v>
@@ -7497,10 +7497,10 @@
         </is>
       </c>
       <c r="F110">
-        <v>1.64</v>
+        <v>164</v>
       </c>
       <c r="G110">
-        <v>62.3</v>
+        <v>62.9</v>
       </c>
       <c r="H110">
         <v>5</v>
@@ -7562,10 +7562,10 @@
         </is>
       </c>
       <c r="F111">
-        <v>1.63</v>
+        <v>164</v>
       </c>
       <c r="G111">
-        <v>59.3</v>
+        <v>60.3</v>
       </c>
       <c r="H111">
         <v>4</v>
@@ -7627,10 +7627,10 @@
         </is>
       </c>
       <c r="F112">
-        <v>1.48</v>
+        <v>160</v>
       </c>
       <c r="G112">
-        <v>56.6</v>
+        <v>66.5</v>
       </c>
       <c r="H112">
         <v>3</v>
@@ -7692,10 +7692,10 @@
         </is>
       </c>
       <c r="F113">
-        <v>1.69</v>
+        <v>166</v>
       </c>
       <c r="G113">
-        <v>71.3</v>
+        <v>69</v>
       </c>
       <c r="H113">
         <v>2</v>
@@ -7757,10 +7757,10 @@
         </is>
       </c>
       <c r="F114">
-        <v>1.76</v>
+        <v>168</v>
       </c>
       <c r="G114">
-        <v>77.2</v>
+        <v>70.3</v>
       </c>
       <c r="H114">
         <v>5</v>
@@ -7822,10 +7822,10 @@
         </is>
       </c>
       <c r="F115">
-        <v>1.75</v>
+        <v>167</v>
       </c>
       <c r="G115">
-        <v>89.7</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="H115">
         <v>2</v>
@@ -7887,10 +7887,10 @@
         </is>
       </c>
       <c r="F116">
-        <v>1.62</v>
+        <v>164</v>
       </c>
       <c r="G116">
-        <v>62.5</v>
+        <v>63.9</v>
       </c>
       <c r="H116">
         <v>2</v>
@@ -7952,10 +7952,10 @@
         </is>
       </c>
       <c r="F117">
-        <v>1.79</v>
+        <v>169</v>
       </c>
       <c r="G117">
-        <v>71.09999999999999</v>
+        <v>63.2</v>
       </c>
       <c r="H117">
         <v>3</v>
@@ -8017,10 +8017,10 @@
         </is>
       </c>
       <c r="F118">
-        <v>1.59</v>
+        <v>163</v>
       </c>
       <c r="G118">
-        <v>59.4</v>
+        <v>62.6</v>
       </c>
       <c r="H118">
         <v>3</v>
@@ -8082,10 +8082,10 @@
         </is>
       </c>
       <c r="F119">
-        <v>1.68</v>
+        <v>165</v>
       </c>
       <c r="G119">
-        <v>71</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="H119">
         <v>2</v>
@@ -8147,10 +8147,10 @@
         </is>
       </c>
       <c r="F120">
-        <v>1.52</v>
+        <v>161</v>
       </c>
       <c r="G120">
-        <v>59.5</v>
+        <v>67.2</v>
       </c>
       <c r="H120">
         <v>5</v>
@@ -8212,10 +8212,10 @@
         </is>
       </c>
       <c r="F121">
-        <v>1.75</v>
+        <v>167</v>
       </c>
       <c r="G121">
-        <v>67</v>
+        <v>61.5</v>
       </c>
       <c r="H121">
         <v>2</v>
@@ -8277,10 +8277,10 @@
         </is>
       </c>
       <c r="F122">
-        <v>1.57</v>
+        <v>162</v>
       </c>
       <c r="G122">
-        <v>64.09999999999999</v>
+        <v>69</v>
       </c>
       <c r="H122">
         <v>5</v>
@@ -8342,10 +8342,10 @@
         </is>
       </c>
       <c r="F123">
-        <v>1.62</v>
+        <v>164</v>
       </c>
       <c r="G123">
-        <v>59.9</v>
+        <v>61.5</v>
       </c>
       <c r="H123">
         <v>3</v>
@@ -8407,10 +8407,10 @@
         </is>
       </c>
       <c r="F124">
-        <v>1.63</v>
+        <v>164</v>
       </c>
       <c r="G124">
-        <v>85.5</v>
+        <v>87.2</v>
       </c>
       <c r="H124">
         <v>2</v>
@@ -8472,10 +8472,10 @@
         </is>
       </c>
       <c r="F125">
-        <v>1.57</v>
+        <v>162</v>
       </c>
       <c r="G125">
-        <v>56.1</v>
+        <v>60.4</v>
       </c>
       <c r="H125">
         <v>2</v>
@@ -8537,10 +8537,10 @@
         </is>
       </c>
       <c r="F126">
-        <v>1.68</v>
+        <v>165</v>
       </c>
       <c r="G126">
-        <v>67.90000000000001</v>
+        <v>66</v>
       </c>
       <c r="H126">
         <v>5</v>
@@ -8602,10 +8602,10 @@
         </is>
       </c>
       <c r="F127">
-        <v>1.74</v>
+        <v>167</v>
       </c>
       <c r="G127">
-        <v>74.09999999999999</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="H127">
         <v>2</v>
@@ -8667,10 +8667,10 @@
         </is>
       </c>
       <c r="F128">
-        <v>1.7</v>
+        <v>166</v>
       </c>
       <c r="G128">
-        <v>63.6</v>
+        <v>60.7</v>
       </c>
       <c r="H128">
         <v>2</v>
@@ -8732,10 +8732,10 @@
         </is>
       </c>
       <c r="F129">
-        <v>1.63</v>
+        <v>164</v>
       </c>
       <c r="G129">
-        <v>70.8</v>
+        <v>72.2</v>
       </c>
       <c r="H129">
         <v>4</v>
@@ -8797,10 +8797,10 @@
         </is>
       </c>
       <c r="F130">
-        <v>1.71</v>
+        <v>166</v>
       </c>
       <c r="G130">
-        <v>74.90000000000001</v>
+        <v>71.3</v>
       </c>
       <c r="H130">
         <v>4</v>
@@ -8862,10 +8862,10 @@
         </is>
       </c>
       <c r="F131">
-        <v>1.57</v>
+        <v>162</v>
       </c>
       <c r="G131">
-        <v>70.8</v>
+        <v>76.3</v>
       </c>
       <c r="H131">
         <v>5</v>
@@ -8927,10 +8927,10 @@
         </is>
       </c>
       <c r="F132">
-        <v>1.66</v>
+        <v>165</v>
       </c>
       <c r="G132">
-        <v>79.09999999999999</v>
+        <v>78.2</v>
       </c>
       <c r="H132">
         <v>2</v>
@@ -8992,10 +8992,10 @@
         </is>
       </c>
       <c r="F133">
-        <v>1.79</v>
+        <v>168</v>
       </c>
       <c r="G133">
-        <v>77.2</v>
+        <v>69</v>
       </c>
       <c r="H133">
         <v>4</v>
@@ -9057,10 +9057,10 @@
         </is>
       </c>
       <c r="F134">
-        <v>1.71</v>
+        <v>166</v>
       </c>
       <c r="G134">
-        <v>77.3</v>
+        <v>73.5</v>
       </c>
       <c r="H134">
         <v>5</v>
@@ -9122,10 +9122,10 @@
         </is>
       </c>
       <c r="F135">
-        <v>1.68</v>
+        <v>165</v>
       </c>
       <c r="G135">
-        <v>78.09999999999999</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="H135">
         <v>4</v>
@@ -9187,10 +9187,10 @@
         </is>
       </c>
       <c r="F136">
-        <v>1.68</v>
+        <v>165</v>
       </c>
       <c r="G136">
-        <v>80.3</v>
+        <v>78.3</v>
       </c>
       <c r="H136">
         <v>5</v>
@@ -9252,10 +9252,10 @@
         </is>
       </c>
       <c r="F137">
-        <v>1.66</v>
+        <v>165</v>
       </c>
       <c r="G137">
-        <v>66.09999999999999</v>
+        <v>65.3</v>
       </c>
       <c r="H137">
         <v>4</v>
@@ -9317,10 +9317,10 @@
         </is>
       </c>
       <c r="F138">
-        <v>1.86</v>
+        <v>171</v>
       </c>
       <c r="G138">
-        <v>91.59999999999999</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="H138">
         <v>4</v>
@@ -9382,10 +9382,10 @@
         </is>
       </c>
       <c r="F139">
-        <v>1.64</v>
+        <v>164</v>
       </c>
       <c r="G139">
-        <v>69.40000000000001</v>
+        <v>69.7</v>
       </c>
       <c r="H139">
         <v>5</v>
@@ -9447,10 +9447,10 @@
         </is>
       </c>
       <c r="F140">
-        <v>1.63</v>
+        <v>164</v>
       </c>
       <c r="G140">
-        <v>73.40000000000001</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="H140">
         <v>5</v>
@@ -9512,10 +9512,10 @@
         </is>
       </c>
       <c r="F141">
-        <v>1.55</v>
+        <v>162</v>
       </c>
       <c r="G141">
-        <v>59.2</v>
+        <v>64.5</v>
       </c>
       <c r="H141">
         <v>3</v>
@@ -9577,10 +9577,10 @@
         </is>
       </c>
       <c r="F142">
-        <v>1.56</v>
+        <v>162</v>
       </c>
       <c r="G142">
-        <v>72.7</v>
+        <v>78.7</v>
       </c>
       <c r="H142">
         <v>5</v>
@@ -9642,10 +9642,10 @@
         </is>
       </c>
       <c r="F143">
-        <v>1.54</v>
+        <v>161</v>
       </c>
       <c r="G143">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="H143">
         <v>3</v>
@@ -9707,10 +9707,10 @@
         </is>
       </c>
       <c r="F144">
-        <v>1.75</v>
+        <v>167</v>
       </c>
       <c r="G144">
-        <v>79.8</v>
+        <v>73.40000000000001</v>
       </c>
       <c r="H144">
         <v>3</v>
@@ -9772,10 +9772,10 @@
         </is>
       </c>
       <c r="F145">
-        <v>1.51</v>
+        <v>160</v>
       </c>
       <c r="G145">
-        <v>50.3</v>
+        <v>57.5</v>
       </c>
       <c r="H145">
         <v>4</v>
@@ -9837,10 +9837,10 @@
         </is>
       </c>
       <c r="F146">
-        <v>1.57</v>
+        <v>162</v>
       </c>
       <c r="G146">
-        <v>51.9</v>
+        <v>55.7</v>
       </c>
       <c r="H146">
         <v>2</v>
@@ -9902,10 +9902,10 @@
         </is>
       </c>
       <c r="F147">
-        <v>1.75</v>
+        <v>167</v>
       </c>
       <c r="G147">
-        <v>86.09999999999999</v>
+        <v>79.3</v>
       </c>
       <c r="H147">
         <v>5</v>
@@ -9967,10 +9967,10 @@
         </is>
       </c>
       <c r="F148">
-        <v>1.62</v>
+        <v>164</v>
       </c>
       <c r="G148">
-        <v>63</v>
+        <v>64.8</v>
       </c>
       <c r="H148">
         <v>4</v>
@@ -10032,10 +10032,10 @@
         </is>
       </c>
       <c r="F149">
-        <v>1.69</v>
+        <v>166</v>
       </c>
       <c r="G149">
-        <v>67.59999999999999</v>
+        <v>65.09999999999999</v>
       </c>
       <c r="H149">
         <v>3</v>
@@ -10097,10 +10097,10 @@
         </is>
       </c>
       <c r="F150">
-        <v>1.64</v>
+        <v>164</v>
       </c>
       <c r="G150">
-        <v>67.3</v>
+        <v>67.7</v>
       </c>
       <c r="H150">
         <v>5</v>
@@ -10162,10 +10162,10 @@
         </is>
       </c>
       <c r="F151">
-        <v>1.71</v>
+        <v>166</v>
       </c>
       <c r="G151">
-        <v>80.2</v>
+        <v>76.2</v>
       </c>
       <c r="H151">
         <v>4</v>
@@ -10227,10 +10227,10 @@
         </is>
       </c>
       <c r="F152">
-        <v>1.54</v>
+        <v>162</v>
       </c>
       <c r="G152">
-        <v>62.1</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="H152">
         <v>3</v>
@@ -10292,10 +10292,10 @@
         </is>
       </c>
       <c r="F153">
-        <v>1.6</v>
+        <v>163</v>
       </c>
       <c r="G153">
-        <v>67.40000000000001</v>
+        <v>70.59999999999999</v>
       </c>
       <c r="H153">
         <v>4</v>
@@ -10357,10 +10357,10 @@
         </is>
       </c>
       <c r="F154">
-        <v>1.63</v>
+        <v>164</v>
       </c>
       <c r="G154">
-        <v>78.40000000000001</v>
+        <v>79.90000000000001</v>
       </c>
       <c r="H154">
         <v>3</v>
@@ -10422,10 +10422,10 @@
         </is>
       </c>
       <c r="F155">
-        <v>1.52</v>
+        <v>161</v>
       </c>
       <c r="G155">
-        <v>56.8</v>
+        <v>63.9</v>
       </c>
       <c r="H155">
         <v>3</v>
@@ -10487,10 +10487,10 @@
         </is>
       </c>
       <c r="F156">
-        <v>1.72</v>
+        <v>167</v>
       </c>
       <c r="G156">
-        <v>66.59999999999999</v>
+        <v>62.6</v>
       </c>
       <c r="H156">
         <v>4</v>
@@ -10552,10 +10552,10 @@
         </is>
       </c>
       <c r="F157">
-        <v>1.63</v>
+        <v>164</v>
       </c>
       <c r="G157">
-        <v>81</v>
+        <v>82.8</v>
       </c>
       <c r="H157">
         <v>3</v>
@@ -10617,10 +10617,10 @@
         </is>
       </c>
       <c r="F158">
-        <v>1.73</v>
+        <v>167</v>
       </c>
       <c r="G158">
-        <v>84.09999999999999</v>
+        <v>78.5</v>
       </c>
       <c r="H158">
         <v>2</v>
@@ -10682,10 +10682,10 @@
         </is>
       </c>
       <c r="F159">
-        <v>1.6</v>
+        <v>163</v>
       </c>
       <c r="G159">
-        <v>75.59999999999999</v>
+        <v>79</v>
       </c>
       <c r="H159">
         <v>3</v>
